--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D7C2CD1-2FF6-4759-A686-D997D3A29311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180E604-8FD2-4111-B586-4A0FC8E6E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="735" windowWidth="17535" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="12315" yWindow="720" windowWidth="17535" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="data" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$D$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$D$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2849,10 +2849,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : C
-Amazon Lex.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A health care company is planning to use neural networks to classify their X-ray images into normal and abnormal classes. The labeled data is divided into a training set of 1,000 images and a test set of 200 images. The initial training of a neural network model with 50 hidden layers yielded 99% accuracy on the training set, but only 55% accuracy on the test set. What changes should the Specialist consider to solve this issue?
 (Choose three.)
 [A] Choose a higher number of layers.
@@ -2864,10 +2860,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : B
-Choose a lower number of layers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Data Scientist needs to analyze employment data. The dataset contains approximately 10 million observations on people across 10 different features. During the preliminary analysis, the Data Scientist notices that income and age distributions are not normal. While income levels shows a right skew as expected, with fewer individuals having a higher income, the age distribution also shows a right skew, with fewer older individuals participating in the workforce. Which feature transformations can the Data Scientist apply to fix the incorrectly skewed data?
 (Choose two.)
 [A] Cross-validation.
@@ -2878,10 +2870,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : B
-Numerical value binning.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Machine Learning team runs its own training algorithm on Amazon SageMaker. The training algorithm requires external assets. The team needs to submit both its own algorithm code and algorithm-specific parameters to Amazon SageMaker. What combination of services should the team use to build a custom algorithm in Amazon SageMaker?
 (Choose two.)
 [A] AWS Secrets Manager.
@@ -2892,10 +2880,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : C
-Amazon ECR.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Data Scientist is building a model to predict customer churn using a dataset of 100 continuous numerical features. The Marketing team has not provided any insight about which features are relevant for churn prediction. The Marketing team wants to interpret the model and see the direct impact of relevant features on the model outcome. While training a Logistic Regression model, the Data Scientist observes that there is a wide gap between the training and validation set accuracy. Which methods can the Data Scientist use to improve the model performance and satisfy the Marketing team's needs?
 (Choose two.)
 [A] Add L1 regularization to the classifier.
@@ -2906,10 +2890,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : A
-Add L1 regularization to the classifier.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A machine learning (ML) specialist wants to secure calls to the Amazon SageMaker Service API. The specialist has configured Amazon VPC with a VPC interface endpoint for the Amazon SageMaker Service API and is attempting to secure traffic from specific sets of instances and IAM users. The VPC is configured with a single public subnet. Which combination of steps should the ML specialist take to secure the traffic?
 (Choose two.)
 [A] Add a VPC endpoint policy to allow access to the IAM users.
@@ -2920,10 +2900,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : A
-Add a VPC endpoint policy to allow access to the IAM users.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A logistics company needs a forecast model to predict next month's inventory requirements for a single item in 10 warehouses. A machine learning specialist uses Amazon Forecast to develop a forecast model from 3 years of monthly data. There is no missing data. The specialist selects the DeepAR+ algorithm to train a predictor. The predictor means absolute percentage error (MAPE) is much larger than the MAPE produced by the current human forecasters. Which changes to the CreatePredictor API call could improve the MAPE?
 (Choose two.)
 [A] Set PerformAutoML to true.
@@ -2934,10 +2910,6 @@
 </t>
   </si>
   <si>
-    <t>Answer : A
-Set PerformAutoML to true.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A data scientist wants to use Amazon Forecast to build a forecasting model for inventory demand for a retail company. The company has provided a dataset of historic inventory demand for its products as a .csv file stored in an Amazon S3 bucket. The table below shows a sample of the dataset. How should the data scientist transform the data?
 [A] Use ETL jobs in AWS Glue to separate the dataset into a target time series dataset and an item metadata dataset. Upload both datasets as .csv files to Amazon S3.
 [B] Use a Jupyter notebook in Amazon SageMaker to separate the dataset into a related time series dataset and an item metadata dataset. Upload both datasets as tables in Amazon Aurora.
@@ -2958,10 +2930,6 @@
 [D] Area under the precision-recall curve.
 [E] True positive rate.
 </t>
-  </si>
-  <si>
-    <t>Answer : D
-Area under the precision-recall curve.</t>
   </si>
   <si>
     <t xml:space="preserve">A financial services company wants to adopt Amazon SageMaker as its default data science environment. The company's data scientists run machine learning (ML) models on confidential financial data. The company is worried about data egress and wants an ML engineer to secure the environment. Which mechanisms can the ML engineer use to control data egress from SageMaker?
@@ -2975,8 +2943,50 @@
 </t>
   </si>
   <si>
-    <t>Answer : A
-Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.</t>
+    <t>Answers : C,E,F
+Amazon Lex,Amazon Comprehend,Amazon Transcribe</t>
+  </si>
+  <si>
+    <t>Answers : B,D,F
+Choose a lower number of layers.
+Enable dropout.
+Enable early stopping.</t>
+  </si>
+  <si>
+    <t>Answers : B,D
+Numerical value binning.
+Logarithmic transformation.</t>
+  </si>
+  <si>
+    <t>Answers : C,E
+Amazon ECR.
+Amazon S3.</t>
+  </si>
+  <si>
+    <t>Answers : A,E
+Add L1 regularization to the classifier.
+Perform linear discriminant analysis.</t>
+  </si>
+  <si>
+    <t>Answers : A,C
+Add a VPC endpoint policy to allow access to the IAM users.
+Modify the security group on the endpoint network interface to restrict access to the instances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers : A,D
+Set PerformAutoML to true.
+Set PerformHPO to true.
+</t>
+  </si>
+  <si>
+    <t>Answers : D,E
+Area under the precision-recall curve.
+True positive rate.</t>
+  </si>
+  <si>
+    <t>Answers : A,D
+Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.
+Enable network isolation for training jobs and models.</t>
   </si>
 </sst>
 </file>
@@ -3186,7 +3196,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3194,7 +3204,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3461,50 +3471,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493712</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="[0]!text2voice">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="638175" y="1216153"/>
-          <a:ext cx="465137" cy="669798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4061,7 +4027,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:P31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4581,27 +4549,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId4" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4631,27 +4599,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
+        <control shapeId="1035" r:id="rId8" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5375,7 +5343,7 @@
       </c>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -5783,7 +5751,7 @@
       </c>
       <c r="D87" s="13"/>
     </row>
-    <row r="88" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -5903,7 +5871,7 @@
       </c>
       <c r="D97" s="13"/>
     </row>
-    <row r="98" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -6035,7 +6003,7 @@
       </c>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
@@ -6542,7 +6510,7 @@
         <v>333</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6550,10 +6518,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6605,10 +6573,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6682,10 +6650,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6704,10 +6672,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6836,10 +6804,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6858,10 +6826,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6869,10 +6837,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
@@ -6924,10 +6892,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -6990,7 +6958,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>352</v>

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F180E604-8FD2-4111-B586-4A0FC8E6E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072801A2-0B0B-4AB1-9E44-E5A2E8B86F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="720" windowWidth="17535" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="9045" yWindow="1245" windowWidth="17535" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -2963,11 +2963,6 @@
 Amazon S3.</t>
   </si>
   <si>
-    <t>Answers : A,E
-Add L1 regularization to the classifier.
-Perform linear discriminant analysis.</t>
-  </si>
-  <si>
     <t>Answers : A,C
 Add a VPC endpoint policy to allow access to the IAM users.
 Modify the security group on the endpoint network interface to restrict access to the instances.</t>
@@ -2987,6 +2982,19 @@
     <t>Answers : A,D
 Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.
 Enable network isolation for training jobs and models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The answers : A,C.
+From the questions:
+1. The Marketing team wants to interpret the model and see the direct impact of relevant features on the model outcome =&gt;  The original features who impact the target.
+2. There is a wide gap between the training and validation set accuracy =&gt; Model overfitting
+To resolve the two problem:
+A. (Correct) Regularization could prevent overfitting
+B. (Wrong) Wrong. More features, Overfitting will be worse.
+C. (Correct) Chose the best feature without modifying features, eliminate the least important features(dimensionality reduction)
+D. (Wrong)  Change the features space when non-linearity exist in features co-variance
+E. (Wrong) Linear Discriminant Analysis could help reduce dimensionality but transform features also, you could not recognise transformed features.
+</t>
   </si>
 </sst>
 </file>
@@ -3196,7 +3204,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3204,7 +3212,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4549,27 +4557,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
+        <control shapeId="1035" r:id="rId4" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4599,27 +4607,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId8" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6667,7 +6675,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>337</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6807,7 +6815,7 @@
         <v>338</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6829,7 +6837,7 @@
         <v>339</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6895,7 +6903,7 @@
         <v>342</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
@@ -6961,7 +6969,7 @@
         <v>343</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="180" x14ac:dyDescent="0.25">

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072801A2-0B0B-4AB1-9E44-E5A2E8B86F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02655D4-80A5-45C4-89BD-4D951836B56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="1245" windowWidth="17535" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="9525" yWindow="1365" windowWidth="17535" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="data" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$D$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$D$201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="361">
   <si>
     <t>Sn</t>
   </si>
@@ -2994,6 +2994,83 @@
 C. (Correct) Chose the best feature without modifying features, eliminate the least important features(dimensionality reduction)
 D. (Wrong)  Change the features space when non-linearity exist in features co-variance
 E. (Wrong) Linear Discriminant Analysis could help reduce dimensionality but transform features also, you could not recognise transformed features.
+</t>
+  </si>
+  <si>
+    <t>A retail company wants to update its customer support system. The company wants to implement automatic routing of customer claims to different queues to prioritize the claims by category.
+Currently, an operator manually performs the category assignment and routing. After the operator classifies and routes the claim, the company stores the claim's record in a central database. The claim's record includes the claim's category.
+The company has no data science team or experience in the field of machine learning (ML). The company's small development team needs a solution that requires no ML expertise.
+Which solution meets these requirements?
+A. Export the database to a .csv file with two columns: claim_label and claim_text. Use the Amazon SageMaker Object2Vec algorithm and the .csv file to train a model. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+B. Export the database to a .csv file with one column: claim_text. Use the Amazon SageMaker Latent Dirichlet Allocation (LDA) algorithm and the .csv file to train a model. Use the LDA algorithm to detect labels automatically. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+C. Use Amazon Textract to process the database and automatically detect two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the extracted information to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+D. Export the database to a .csv file with two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the .csv file to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.</t>
+  </si>
+  <si>
+    <t>Answer : D
+Export the database to a .csv file with two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the .csv file to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+A. NO - Object2Vec is unsupervised, it will create vector representations but not assign to a category the claims
+B. NO - we want a supervised method, LDA will create topics in an unsupervised way
+C. NO - again we want a supervised method
+D. YES - That is supervised; no need for ML skills, only basic API programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer : D
+Run a SageMaker training job with an EFS file system as the data source.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist has a dataset of machine part images stored in Amazon Elastic File System (Amazon EFS). The data scientist needs to use Amazon SageMaker to create and train an image classification machine learning model based on this dataset. Because of budget and time constraints, management wants the data scientist to create and train a model with the least number of steps and integration work required.
+How should the data scientist meet these requirements?
+A. Mount the EFS file system to a SageMaker notebook and run a script that copies the data to an Amazon FSx for Lustre file system. Run the SageMaker training job with the FSx for Lustre file system as the data source.
+B. Launch a transient Amazon EMR cluster. Configure steps to mount the EFS file system and copy the data to an Amazon S3 bucket by using S3DistCp. Run the SageMaker training job with Amazon S3 as the data source.
+C. Mount the EFS file system to an Amazon EC2 instance and use the AWS CLI to copy the data to an Amazon S3 bucket. Run the SageMaker training job with Amazon S3 as the data source.
+D. Run a SageMaker training job with an EFS file system as the data source.
+</t>
+  </si>
+  <si>
+    <t>Answer: C
+Explanation:
+If this is a ComputerVision problem augmentation can help and we may consider A an option. However in analyzing customer historic data, there is no easy way to increase randomization in training. If you go deep into modelling and coding. When you build model with tensorflow/pytorch, most of the time the trainloader is already sampling in data in random manner (with shuffle enable). What we usually do to reduce overfitting is by adding dropout.</t>
+  </si>
+  <si>
+    <t>Answer : C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning (ML) specialist is using Amazon SageMaker hyperparameter optimization (HPO) to improve a model's accuracy. The learning rate parameter is specified in the following HPO configuration:
+{
+ "Name" : "learning_rate",
+ "MaxValue": "0.0001",
+ "MinValue": "0.1"
+}
+During the results analysis, the ML specialist determines that most of the training jobs had a learning rate between 0.01 and 0.1. The best result had a learning rate of less than 0.01. 
+Training jobs need to run regularly over a changing dataset. The ML specialist needs to find a tuning mechanism that uses different learning rates more evenly from the provided range between MinValue and MaxValue.
+Which solution provides the MOST accurate result?
+A. Modify the HPO configuration as follows:  Select the most accurate hyperparameter configuration form this HPO job.
+{
+ "Name" : "learning_rate",
+ "MaxValue": "0.0001",
+ "MinValue": "0.1",
+ "ScalingType": "ReverseLogarithmic"
+}
+B. Run three different HPO jobs that use different learning rates form the following intervals for MinValue and MaxValue while using the same number of training jobs for each HPO job:
+=&gt; [0.01, 0.1] =&gt; [0.001, 0.01] =&gt; [0.0001, 0.001] 
+Select the most accurate hyperparameter configuration form these three HPO jobs.
+C. Modify the HPO configuration as follows:  
+Select the most accurate hyperparameter configuration form this training job.
+D. Run three different HPO jobs that use different learning rates form the following intervals for MinValue and MaxValue. 
+Divide the number of training jobs for each HPO job by three: 
+=&gt; [0.01, 0.1] =&gt; [0.001, 0.01] [0.0001, 0.001]  
+Select the most accurate hyperparameter configuration form these three HPO jobs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data science team is planning to build a natural language processing (NLP) application. The application's text preprocessing stage will include part-of-speech tagging and key phase extraction. The preprocessed text will be input to a custom classification algorithm that the data science team has already written and trained using Apache MXNet.
+Which solution can the team build MOST quickly to meet these requirements?
+A. Use Amazon Comprehend for the part-of-speech tagging, key phase extraction, and classification tasks.
+B. Use an NLP library in Amazon SageMaker for the part-of-speech tagging. Use Amazon Comprehend for the key phase extraction. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
+C. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use Amazon SageMaker built-in Latent Dirichlet Allocation (LDA) algorithm to build the custom classifier.
+D. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
 </t>
   </si>
 </sst>
@@ -3204,7 +3281,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3212,7 +3289,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4035,7 +4112,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:P31"/>
     </sheetView>
   </sheetViews>
@@ -4557,27 +4634,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId4" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4607,27 +4684,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
+        <control shapeId="1035" r:id="rId8" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4701,9 +4778,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40678F53-F308-4A50-8C7F-845619061711}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5683,7 +5760,7 @@
         <v>121</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -6961,7 +7038,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>192</v>
       </c>
@@ -6972,7 +7049,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>193</v>
       </c>
@@ -6983,7 +7060,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>194</v>
       </c>
@@ -6994,7 +7071,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>195</v>
       </c>
@@ -7005,7 +7082,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>196</v>
       </c>
@@ -7015,6 +7092,53 @@
       <c r="C197" s="12" t="s">
         <v>324</v>
       </c>
+    </row>
+    <row r="198" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <v>197</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D199" s="13"/>
+    </row>
+    <row r="200" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <v>199</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D200" s="13"/>
+    </row>
+    <row r="201" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A201" s="11">
+        <v>200</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D201" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D134">

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02655D4-80A5-45C4-89BD-4D951836B56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8825E75-7D55-443E-AD4C-FA401AEE6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="1365" windowWidth="17535" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="3555" yWindow="960" windowWidth="17535" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="360">
   <si>
     <t>Sn</t>
   </si>
@@ -2979,11 +2979,6 @@
 True positive rate.</t>
   </si>
   <si>
-    <t>Answers : A,D
-Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.
-Enable network isolation for training jobs and models.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The answers : A,C.
 From the questions:
 1. The Marketing team wants to interpret the model and see the direct impact of relevant features on the model outcome =&gt;  The original features who impact the target.
@@ -3034,37 +3029,6 @@
 If this is a ComputerVision problem augmentation can help and we may consider A an option. However in analyzing customer historic data, there is no easy way to increase randomization in training. If you go deep into modelling and coding. When you build model with tensorflow/pytorch, most of the time the trainloader is already sampling in data in random manner (with shuffle enable). What we usually do to reduce overfitting is by adding dropout.</t>
   </si>
   <si>
-    <t>Answer : C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning (ML) specialist is using Amazon SageMaker hyperparameter optimization (HPO) to improve a model's accuracy. The learning rate parameter is specified in the following HPO configuration:
-{
- "Name" : "learning_rate",
- "MaxValue": "0.0001",
- "MinValue": "0.1"
-}
-During the results analysis, the ML specialist determines that most of the training jobs had a learning rate between 0.01 and 0.1. The best result had a learning rate of less than 0.01. 
-Training jobs need to run regularly over a changing dataset. The ML specialist needs to find a tuning mechanism that uses different learning rates more evenly from the provided range between MinValue and MaxValue.
-Which solution provides the MOST accurate result?
-A. Modify the HPO configuration as follows:  Select the most accurate hyperparameter configuration form this HPO job.
-{
- "Name" : "learning_rate",
- "MaxValue": "0.0001",
- "MinValue": "0.1",
- "ScalingType": "ReverseLogarithmic"
-}
-B. Run three different HPO jobs that use different learning rates form the following intervals for MinValue and MaxValue while using the same number of training jobs for each HPO job:
-=&gt; [0.01, 0.1] =&gt; [0.001, 0.01] =&gt; [0.0001, 0.001] 
-Select the most accurate hyperparameter configuration form these three HPO jobs.
-C. Modify the HPO configuration as follows:  
-Select the most accurate hyperparameter configuration form this training job.
-D. Run three different HPO jobs that use different learning rates form the following intervals for MinValue and MaxValue. 
-Divide the number of training jobs for each HPO job by three: 
-=&gt; [0.01, 0.1] =&gt; [0.001, 0.01] [0.0001, 0.001]  
-Select the most accurate hyperparameter configuration form these three HPO jobs.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A data science team is planning to build a natural language processing (NLP) application. The application's text preprocessing stage will include part-of-speech tagging and key phase extraction. The preprocessed text will be input to a custom classification algorithm that the data science team has already written and trained using Apache MXNet.
 Which solution can the team build MOST quickly to meet these requirements?
 A. Use Amazon Comprehend for the part-of-speech tagging, key phase extraction, and classification tasks.
@@ -3072,6 +3036,22 @@
 C. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use Amazon SageMaker built-in Latent Dirichlet Allocation (LDA) algorithm to build the custom classifier.
 D. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning (ML) specialist has prepared and used a custom container image with Amazon SageMaker to train an image classification model. The ML specialist is performing hyperparameter optimization (HPO) with this custom container image to produce a higher quality image classifier.
+The ML specialist needs to determine whether HPO with the SageMaker built-in image classification algorithm will produce a better model than the model produced by HPO with the custom container image. All ML experiments and HPO jobs must be invoked from scripts inside SageMaker Studio notebooks.
+How can the ML specialist meet these requirements in the LEAST amount of time?
+A. Prepare a custom HPO script that runs multiple training jobs in SageMaker Studio in local mode to tune the model of the custom container image. Use the automatic model tuning capability of SageMaker with early stopping enabled to tune the model of the built-in image classification algorithm. Select the model with the best objective metric value.
+B. Use SageMaker Autopilot to tune the model of the custom container image. Use the automatic model tuning capability of SageMaker with early stopping enabled to tune the model of the built-in image classification algorithm. Compare the objective metric values of the resulting models of the SageMaker AutopilotAutoML job and the automatic model tuning job. Select the model with the best objective metric value.
+C. Use SageMaker Experiments to run and manage multiple training jobs and tune the model of the custom container image. Use the automatic model tuning capability of SageMaker to tune the model of the built-in image classification algorithm. Select the model with the best objective metric value.
+D. Use the automatic model tuning capability of SageMaker to tune the models of the custom container image and the built-in image classification algorithm at the same time. Select the model with the best objective metric value.
+</t>
+  </si>
+  <si>
+    <t>Answers : B,D,F
+Use SCPs to restrict access to SageMaker.
+Enable network isolation for training jobs and models.
+Protect data with encryption at rest and in transit. Use AWS Key Management Service (AWS KMS) to manage encryption keys.</t>
   </si>
 </sst>
 </file>
@@ -5760,7 +5740,7 @@
         <v>121</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -6760,7 +6740,7 @@
         <v>337</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -7046,7 +7026,7 @@
         <v>343</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -7098,10 +7078,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -7109,22 +7089,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" s="13"/>
     </row>
-    <row r="200" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="303.75" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="D200" s="13"/>
     </row>
@@ -7133,7 +7113,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>29</v>

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8825E75-7D55-443E-AD4C-FA401AEE6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB598D4-FE20-4BE1-AECF-453D87D3AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="960" windowWidth="17535" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="11100" yWindow="1530" windowWidth="15765" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="361">
   <si>
     <t>Sn</t>
   </si>
@@ -941,25 +941,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Answers : B
-keyword : bucket
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Science team within a large company uses Amazon SageMaker notebooks to access data stored in Amazon S3 buckets. The IT Security team is concerned that internet-enabled notebook instances create a security vulnerability where malicious code running on the instances could compromise data privacy.
-The company mandates that all instances stay within a secured VPC with no internet access, and data communication traffic must stay within the AWS network.
-How should the Data Science team configure the notebook instance placement to meet these requirements?
-A. Associate the Amazon SageMaker notebook with a private subnet in a VP
-B. Place the Amazon SageMaker endpoint and S3 buckets within the same VPC.
-C. Associate the Amazon SageMaker notebook with a private subnet in a VP
-D. Use IAM policies to grant access to Amazon S3 and Amazon SageMaker.
-E. Associate the Amazon SageMaker notebook with a private subnet in a VP
-F. Ensure the VPC has S3 VPC endpoints and Amazon SageMaker VPC endpoints attached to it.
-G. Associate the Amazon SageMaker notebook with a private subnet in a VP
-H. Ensure the VPC has a NAT gateway and an associated security group allowing only outbound connections to Amazon S3 and Amazon SageMaker
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Machine Learning Specialist needs to move and transform data in preparation for training Some of the data needs to be processed in near-real time and other data can be moved hourly There are existing Amazon EMR MapReduce jobs to clean and feature engineering to perform on the data
 Which of the following services can feed data to the MapReduce jobs? (Select TWO )
 A. AWS Database Migration Service (DMS) 
@@ -2202,398 +2183,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A Machine Learning Specialist receives customer data for an online shopping website. The data includes demographics, past visits, and locality information. The Specialist must develop a machine learning approach to identify the customer shopping patterns, preferences, and trends to enhance the website-for better service and smart recommendations. Which solution should the Specialist recommend?
-[A] Latent Dirichlet Allocation (LDA) for the given collection of discrete data to identify patterns in the customer database.
-[B] A neural network with a minimum of three layers and random initial weights to identify patterns in the customer database.
-[C] Collaborative filtering based on user interactions and correlations to identify patterns in the customer database.
-[D] Random Cut Forest (RCF) over random subsamples to identify patterns in the customer database.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A retail chain has been ingesting purchasing records from its network of 20,000 stores to Amazon S3 using Amazon Kinesis Data Firehose. To support training an improved machine learning model, training records will require new but simple transformations, and some attributes will be combined. The model needs to be retrained daily. Given the large number of stores and the legacy data ingestion, which change will require the LEAST amount of development effort?
-[A] Require that the stores to switch to capturing their data locally on AWS Storage Gateway for loading into Amazon S3, then use AWS Glue to do the transformation.
-[B] Deploy an Amazon EMR cluster running Apache Spark with the transformation logic, and have the cluster run each day on the accumulating records in Amazon S3, outputting new/transformed records to Amazon S3.
-[C] Spin up a fleet of Amazon EC2 instances with the transformation logic, have them transform the data records accumulating on Amazon S3, and output the transformed records to Amazon S3.
-[D] Insert an Amazon Kinesis Data Analytics stream downstream of the Kinesis Data Firehose stream that transforms raw record attributes into simple transformed values using SQL.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom has been tasked to install Check Point R80 in a distributed deployment. Before Tom installs the systems this way, how many machines will he need if he does NOT include a SmartConsole machine in his calculations?
-[A] One machine, but it needs to be installed using SecurePlatform for compatibility purposes.
-[B] One machine.
-[C] Two machines.
-[D] Three machines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which characteristic applies to a catalog backup?
-[A] Catalog staging files deleted after a successful catalog backup.
-[B] A catalog backup can be configured to send disaster recovery information to an e-mail address.
-[C] A catalog backup must fit on a single tape.
-[D] A catalog backup shuts down the NetBackup database.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist is developing a pipeline to ingest streaming web traffic data. The data scientist needs to implement a process to identify unusual web traffic patterns as part of the pipeline. The patterns will be used downstream for alerting and incident response. The data scientist has access to unlabeled historic data to use, if needed. The solution needs to do the following: Calculate an anomaly score for each web traffic entry. Adapt unusual event identification to changing web patterns over time. Which approach should the data scientist implement to meet these requirements?
-[A] Use historic web traffic data to train an anomaly detection model using the Amazon SageMaker Random Cut Forest (RCF) built-in model. Use an Amazon Kinesis Data Stream to process the incoming web traffic data. Attach a preprocessing AWS Lambda function to perform data enrichment by calling the RCF model to calculate the anomaly score for each record.
-[B] Use historic web traffic data to train an anomaly detection model using the Amazon SageMaker built-in XGBoost model. Use an Amazon Kinesis Data Stream to process the incoming web traffic data. Attach a preprocessing AWSLambda function to perform data enrichment by calling the XGBoost model to calculate the anomaly score for each record.
-[C] Collect the streaming data using Amazon Kinesis Data Firehose. Map the delivery stream as an input source for Amazon Kinesis Data Analytics. Write a SQL query to run in real time against the streaming data with the k-NearestNeighbors (kNN) SQL extension to calculate anomaly scores for each record using a tumbling window.
-[D] Collect the streaming data using Amazon Kinesis Data Firehose. Map the delivery stream as an input source for Amazon Kinesis Data Analytics. Write a SQL query to run in real time against the streaming data with the Amazon RandomCut Forest (RCF) SQL extension to calculate anomaly scores for each record using a sliding window.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Scientist received a set of insurance records, each consisting of a record ID, the final outcome among 200 categories, and the date of the final outcome. Some partial information on claim contents is also provided, but only for a few of the 200 categories. For each outcome category, there are hundreds of records distributed over the past 3 years. The Data Scientist wants to predict how many claims to expect in each category from month to month, a few months in advance. What type of machine learning model should be used?
-[A] Classification month-to-month using supervised learning of the 200 categories based on claim contents.
-[B] Reinforcement learning using claim IDs and timestamps where the agent will identify how many claims in each category to expect from month to month.
-[C] Forecasting using claim IDs and timestamps to identify how many claims in each category to expect from month to month.
-[D] Classification with supervised learning of the categories for which partial information on claim contents is provided, and forecasting using claim IDs and timestamps for all other categories.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company that promotes healthy sleep patterns by providing cloud-connected devices currently hosts a sleep tracking application on AWS. The application collects device usage information from device users. The company's Data Science team is building a machine learning model to predict if and when a user will stop utilizing the company's devices. Predictions from this model are used by a downstream application that determines the best approach for contacting users. The Data Science team is building multiple versions of the machine learning model to evaluate each version against the company's business goals. To measure long-term effectiveness, the team wants to run multiple versions of the model in parallel for long periods of time, with the ability to control the portion of inferences served by the models. Which solution satisfies these requirements with MINIMAL effort?
-[A] Build and host multiple models in Amazon SageMaker. Create multiple Amazon SageMaker endpoints, one for each model. Programmatically control invoking different models for inference at the application layer.
-[B] Build and host multiple models in Amazon SageMaker. Create an Amazon SageMaker endpoint configuration with multiple production variants. Programmatically control the portion of the inferences served by the multiple models by updating the endpoint configuration.
-[C] Build and host multiple models in Amazon SageMaker Neo to take into account different types of medical devices. Programmatically control which model is invoked for inference based on the medical device type.
-[D] Build and host multiple models in Amazon SageMaker. Create a single endpoint that accesses multiple models. Use Amazon SageMaker batch transform to control invoking the different models through the single endpoint.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A media company with a very large archive of unlabeled images, text, audio, and video footage wishes to index its assets to allow rapid identification of relevant content by the Research team. The company wants to use machine learning to accelerate the efforts of its in-house researchers who have limited machine learning expertise. Which is the FASTEST route to index the assets?
-[A] Use Amazon Rekognition, Amazon Comprehend, and Amazon Transcribe to tag data into distinct categories/classes.
-[B] Create a set of Amazon Mechanical Turk Human Intelligence Tasks to label all footage.
-[C] Use Amazon Transcribe to convert speech to text. Use the Amazon SageMaker Neural Topic Model (NTM) and Object Detection algorithms to tag data into distinct categories/classes.
-[D] Use the AWS Deep Learning AMI and Amazon EC2 GPU instances to create custom models for audio transcription and topic modeling, and use object detection to tag data into distinct categories/classes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is working for an online retailer that wants to run analytics on every customer visit, processed through a machine learning pipeline. The data needs to be ingested by Amazon Kinesis Data Streams at up to 100 transactions per second, and the JSON data blob is 100 KB in size. What is the MINIMUM number of shards in Kinesis Data Streams the Specialist should use to successfully ingest this data?
-[A] 1 shards.
-[B] 10 shards.
-[C] 100 shards.
-[D] 1,000 shards.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is deciding between building a naive Bayesian model or a full Bayesian network for a classification problem. The Specialist computes the Pearson correlation coefficients between each feature and finds that their absolute values range between 0.1 to 0.95. Which model describes the underlying data in this situation?
-[A] A naive Bayesian model, since the features are all conditionally independent.
-[B] A full Bayesian network, since the features are all conditionally independent.
-[C] A naive Bayesian model, since some of the features are statistically dependent.
-[D] A full Bayesian network, since some of the features are statistically dependent.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A technology startup is using complex deep neural networks and GPU compute to recommend the company's products to its existing customers based upon each customer's habits and interactions. The solution currently pulls each dataset from an Amazon S3 bucket before loading the data into a TensorFlow model pulled from the company's Git repository that runs locally. This job then runs for several hours while continually outputting its progress to the same S3 bucket. The job can be paused, restarted, and continued at any time in the event of a failure, and is run from a central queue. Senior managers are concerned about the complexity of the solution's resource management and the costs involved in repeating the process regularly. They ask for the workload to the automated so it runs once a week, starting Monday and completing by the close of business Friday. Which architecture should be used to scale the solution at the lowest cost?
-[A] Implement the solution using AWS Deep Learning Containers and run the container as a job using AWS Batch on a GPU-compatible Spot Instance.
-[B] Implement the solution using a low-cost GPU compatible Amazon EC2 instance and use the AWS Instance Scheduler to schedule the task.
-[C] Implement the solution using AWS Deep Learning Containers, run the workload using AWS Fargate running on Spot Instances, and then schedule the task using the built-in task scheduler.
-[D] Implement the solution using Amazon ECS running on Spot Instances and schedule the task using the ECS service scheduler.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning specialist works for a fruit processing company and needs to build a system that categorizes apples into three types. The specialist has collected a dataset that contains 150 images for each type of apple and applied transfer learning on a neural network that was pretrained on ImageNet with this dataset. The company requires at least 85% accuracy to make use of the model. After an exhaustive grid search, the optimal hyperparameters produced the following: 68% accuracy on the training set. 67% accuracy on the validation set. What can the machine learning specialist do to improve the system's accuracy?
-[A] Upload the model to an Amazon SageMaker notebook instance and use the Amazon SageMaker HPO feature to optimize the model's hyperparameters.
-[B] Add more data to the training set and retrain the model using transfer learning to reduce the bias.
-[C] Use a neural network model with more layers that are pretrained on ImageNet and apply transfer learning to increase the variance.
-[D] Train a new model using the current neural network architecture.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company uses camera images of the tops of items displayed on store shelves to determine which items were removed and which ones still remain. After several hours of data labeling, the company has a total of 1,000 hand-labeled images covering 10 distinct items. The training results were poor. Which machine learning approach fulfills the company's long-term needs?
-[A] Convert the images to grayscale and retrain the model.
-[B] Reduce the number of distinct items from 10 to 2, build the model, and iterate.
-[C] Attach different colored labels to each item, take the images again, and build the model.
-[D] Augment training data for each item using image variants like inversions and translations, build the model, and iterate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Scientist is developing a binary classifier to predict whether a patient has a particular disease on a series of test results. The Data Scientist has data on 400 patients randomly selected from the population. The disease is seen in 3% of the population. Which cross-validation strategy should the Data Scientist adopt?
-[A] A k-fold cross-validation strategy with k=5.
-[B] A stratified k-fold cross-validation strategy with k=5.
-[C] A k-fold cross-validation strategy with k=5 and 3 repeats.
-[D] An 80/20 stratified split between training and validation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company wants to predict the sale prices of houses based on available historical sales data. The target variable in the company's dataset is the sale price. The features include parameters such as the lot size, living area measurements, non-living area measurements, number of bedrooms, number of bathrooms, year built, and postal code. The company wants to use multi-variable Linear Regression to predict house sale prices. Which step should a machine learning specialist take to remove features that are irrelevant for the analysis and reduce the model's complexity?
-[A] Plot a histogram of the features and compute their standard deviation. Remove features with high variance.
-[B] Plot a histogram of the features and compute their standard deviation. Remove features with low variance.
-[C] Build a heatmap showing the correlation of the dataset against itself. Remove features with low mutual correlation scores.
-[D] Run a correlation check of all features against the target variable. Remove features with low target variable correlation scores.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is given a structured dataset on the shopping habits of a company's customer base. The dataset contains thousands of columns of data and hundreds of numerical columns for each customer. The Specialist wants to identify whether there are natural groupings for these columns across all customers and visualize the results as quickly as possible. What approach should the Specialist take to accomplish these tasks?
-[A] Embed the numerical features using the t-distributed stochastic neighbor embedding (t-SNE) algorithm and create a scatter plot.
-[B] Run K-means using the Euclidean distance measure for different values of k and create an elbow plot.
-[C] Embed the numerical features using the t-distributed stochastic neighbor embedding (t-SNE) algorithm and create a line graph.
-[D] Run K-means using the Euclidean distance measure for different values of k and create box plots for each numerical column within each cluster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is planning to create a long-running Amazon EMR cluster. The EMR cluster will have 1 master node, 10 core nodes, and 20 task nodes. To save on costs, the Specialist will use Spot Instances in the EMR cluster. Which nodes should the Specialist launch on Spot Instances?
-[A] Master node.
-[B] Any of the core nodes.
-[C] Any of the task nodes.
-[D] Both core and task nodes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist wants to bring a custom algorithm to Amazon SageMaker. The Specialist implements the algorithm in a Docker container supported by Amazon SageMaker. How should the Specialist package the Docker container so that Amazon SageMaker can launch the training correctly?
-[A] Modify the bash_profile file in the container and add a bash command to start the training program.
-[B] Use CMD config in the Dockerfile to add the training program as a CMD of the image.
-[C] Configure the training program as an ENTRYPOINT named train.
-[D] Copy the training program to directory /opt/ml/train.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A real estate company wants to create a machine learning model for predicting housing prices based on a historical dataset. The dataset contains 32 features. Which model will meet the business requirement?
-[A] Logistic Regression.
-[B] Linear Regression.
-[C] K-means.
-[D] Principal Component Analysis (PCA).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is applying a linear least squares regression model to a dataset with 1,000 records and 50 features. Prior to training, the ML Specialist notices that two features are perfectly linearly dependent. Why could this be an issue for the linear least squares regression model?
-[A] It could cause the backpropagation algorithm to fail during training.
-[B] It could create a singular matrix during optimization, which fails to define a unique solution.
-[C] It could modify the loss function during optimization, causing it to fail during training.
-[D] It could introduce non-linear dependencies within the data, which could invalidate the linear assumptions of the model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A credit card company wants to build a credit scoring model to help predict whether a new credit card applicant will default on a credit card payment. The company has collected data from a large number of sources with thousands of raw attributes. Early experiments to train a classification model revealed that many attributes are highly correlated, the large number of features slows down the training speed significantly, and that there are some overfitting issues. The Data Scientist on this project would like to speed up the model training time without losing a lot of information from the original dataset. Which feature engineering technique should the Data Scientist use to meet the objectives?
-[A] Run self-correlation on all features and remove highly correlated features.
-[B] Normalize all numerical values to be between 0 and 1.
-[C] Use an autoencoder or Principal Component Analysis (PCA) to replace original features with new features.
-[D] Cluster raw data using K-means and use sample data from each cluster to build a new dataset.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Scientist is training a multilayer perception (MLP) on a dataset with multiple classes. The target class of interest is unique compared to the other classes within the dataset, but it does not achieve and acceptable recall metric. The Data Scientist has already tried varying the number and size of the MLP's hidden layers, which has not significantly improved the results. A solution to improve recall must be implemented as quickly as possible. Which techniques should be used to meet these requirements?
-[A] Gather more data using Amazon Mechanical Turk and then retrain.
-[B] Train an anomaly detection model instead of an MLP.
-[C] Train an XGBoost model instead of an MLP.
-[D] Add class weights to the MLP's loss function and then retrain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist previously trained a Logistic Regression model using scikit-learn on a local machine, and the Specialist now wants to deploy it to production for inference only. What steps should be taken to ensure Amazon SageMaker can host a model that was trained locally?
-[A] Build the Docker image with the inference code. Tag the Docker image with the registry hostname and upload it to Amazon ECR.
-[B] Serialize the trained model so the format is compressed for deployment. Tag the Docker image with the registry hostname and upload it to Amazon S3.
-[C] Serialize the trained model so the format is compressed for deployment. Build the image and upload it to Docker Hub.
-[D] Build the Docker image with the inference code. Configure Docker Hub and upload the image to Amazon ECR.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A trucking company is collecting live image data from its fleet of trucks across the globe. The data is growing rapidly and approximately 100 GB of new data is generated every day. The company wants to explore machine learning uses cases while ensuring the data is only accessible to specific IAM users. Which storage option provides the most processing flexibility and will allow access control with IAM?
-[A] Use a database, such as Amazon DynamoDB, to store the images, and set the IAM policies to restrict access to only the desired IAM users.
-[B] Use an Amazon S3-backed data lake to store the raw images, and set up the permissions using bucket policies.
-[C] Setup up Amazon EMR with Hadoop Distributed File System (HDFS) to store the files, and restrict access to the EMR instances using IAM policies.
-[D] Configure Amazon EFS with IAM policies to make the data available to Amazon EC2 instances owned by the IAM users.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company uses a long short-term memory (LSTM) model to evaluate the risk factors of a particular energy sector. The model reviews multi-page text documents to analyze each sentence of the text and categorize it as either a potential risk or no risk. The model is not performing well, even though the Data Scientist has experimented with many different network structures and tuned the corresponding hyperparameters. Which approach will provide the MAXIMUM performance boost?
-[A] Initialize the words by term frequency-inverse document frequency (TF-IDF) vectors pretrained on a large collection of news articles related to the energy sector.
-[B] Use gated recurrent units (GRUs) instead of LSTM and run the training process until the validation loss stops decreasing.
-[C] Reduce the learning rate and run the training process until the training loss stops decreasing.
-[D] Initialize the words by word2vec embeddings pretrained on a large collection of news articles related to the energy sector.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An aircraft engine manufacturing company is measuring 200 performance metrics in a time-series. Engineers want to detect critical manufacturing defects in near-real time during testing. All of the data needs to be stored for offline analysis. What approach would be the MOST effective to perform near-real time defect detection?
-[A] Use AWS IoT Analytics for ingestion, storage, and further analysis. Use Jupyter notebooks from within AWS IoT Analytics to carry out analysis for anomalies.
-[B] Use Amazon S3 for ingestion, storage, and further analysis. Use an Amazon EMR cluster to carry out Apache Spark ML K-means clustering to determine anomalies.
-[C] Use Amazon S3 for ingestion, storage, and further analysis. Use the Amazon SageMaker Random Cut Forest (RCF) algorithm to determine anomalies.
-[D] Use Amazon Kinesis Data Firehose for ingestion and Amazon Kinesis Data Analytics Random Cut Forest (RCF) to perform anomaly detection. Use Kinesis Data Firehose to store data in Amazon S3 for further analysis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large consumer goods manufacturer has the following products on sale: 34 different toothpaste variants. 48 different toothbrush variants. 43 different mouthwash variants. The entire sales history of all these products is available in Amazon S3. Currently, the company is using custom-built autoregressive integrated moving average (ARIMA) models to forecast demand for these products. The company wants to predict the demand for a new product that will soon be launched. Which solution should a Machine Learning Specialist apply?
-[A] Train a custom ARIMA model to forecast demand for the new product.
-[B] Train an Amazon SageMaker DeepAR algorithm to forecast demand for the new product.
-[C] Train an Amazon SageMaker K-means clustering algorithm to forecast demand for the new product.
-[D] Train a custom XGBoost model to forecast demand for the new product.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is working with a large cybersecurity company that manages security events in real time for companies around the world. The cybersecurity company wants to design a solution that will allow it to use machine learning to score malicious events as anomalies on the data as it is being ingested. The company also wants be able to save the results in its data lake for later processing and analysis. What is the MOST efficient way to accomplish these tasks?
-[A] Ingest the data using Amazon Kinesis Data Firehose, and use Amazon Kinesis Data Analytics Random Cut Forest (RCF) for anomaly detection. Then use Kinesis Data Firehose to stream the results to Amazon S3.
-[B] Ingest the data into Apache Spark Streaming using Amazon EMR, and use Spark MLlib with K-means to perform anomaly detection. Then store the results in an Apache Hadoop Distributed File System (HDFS) using Amazon EMR with a replication factor of three as the data lake.
-[C] Ingest the data and store it in Amazon S3. Use AWS Batch along with the AWS Deep Learning AMIs to train a K-means model using TensorFlow on the data in Amazon S3.
-[D] Ingest the data and store it in Amazon S3. Have an AWS Glue job that is triggered on demand transform the new data. Then use the built-in Random Cut Forest (RCF) model within Amazon SageMaker to detect anomalies in the data.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is required to build a supervised image-recognition model to identify a cat. The ML Specialist performs some tests and records the following results for a neural network-based image classifier. Total number of images available = 1,000 Test set images = 100 (constant test set). The ML Specialist notices that, in over 75% of the misclassified images, the cats were held upside down by their owners. Which techniques can be used by the ML Specialist to improve this specific test error?
-[A] Increase the training data by adding variation in rotation for training images.
-[B] Increase the number of epochs for model training.
-[C] Increase the number of layers for the neural network.
-[D] Increase the dropout rate for the second-to-last layer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A manufacturing company has a large set of labeled historical sales data. The manufacturer would like to predict how many units of a particular part should be produced each quarter. Which machine learning approach should be used to solve this problem?
-[A] Logistic Regression.
-[B] Random Cut Forest (RCF).
-[C] Principal Component Analysis (PCA).
-[D] Linear Regression.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist has explored and sanitized a dataset in preparation for the modeling phase of a supervised learning task. The statistical dispersion can vary widely between features, sometimes by several orders of magnitude. Before moving on to the modeling phase, the data scientist wants to ensure that the prediction performance on the production data is as accurate as possible. Which sequence of steps should the data scientist take to meet these requirements?
-[A] Apply random sampling to the dataset. Then split the dataset into training, validation, and test sets.
-[B] Split the dataset into training, validation, and test sets. Then rescale the training set and apply the same scaling to the validation and test sets.
-[C] Rescale the dataset. Then split the dataset into training, validation, and test sets.
-[D] Split the dataset into training, validation, and test sets. Then rescale the training set, the validation set, and the test set independently.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning (ML) specialist uploads a dataset to an Amazon S3 bucket that is protected by server-side encryption with AWS KMS keys (SSE-KMS). The ML specialist needs to ensure that an Amazon SageMaker notebook instance can read the dataset that is in Amazon S3. Which solution will meet these requirements?
-[A] Define security groups to allow all HTTP inbound and outbound traffic. Assign the security groups to the SageMaker notebook instance.
-[B] Configure the SageMaker notebook instance to have access to the VPC. Grant permission in the AWS Key Management Service (AWS KMS) key policy to the notebook's VPC.
-[C] Assign an IAM role that provides S3 read access for the dataset to the SageMaker notebook. Grant permission in the KMS key policy to the IAM role.
-[D] Assign the same KMS key that encrypts the data in Amazon S3 to the SageMaker notebook instance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An agricultural company is interested in using machine learning to detect specific types of weeds in a 100-acre grassland field. Currently, the company uses tractor-mounted cameras to capture multiple images of the field as 10 - 10 grids. The company also has a large training dataset that consists of annotated images of popular weed classes like broadleaf and non-broadleaf docks. The company wants to build a weed detection model that will detect specific types of weeds and the location of each type within the field. Once the model is ready, it will be hosted on Amazon SageMaker endpoints. The model will perform real-time inferencing using the images captured by the cameras. Which approach should a Machine Learning Specialist take to obtain accurate predictions?
-[A] Prepare the images in RecordIO format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an image classification algorithm to categorize images into various weed classes.
-[B] Prepare the images in Apache Parquet format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an object- detection single-shot multibox detector (SSD) algorithm.
-[C] Prepare the images in RecordIO format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an object- detection single-shot multibox detector (SSD) algorithm.
-[D] Prepare the images in Apache Parquet format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an image classification algorithm to categorize images into various weed classes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A manufacturer is operating a large number of factories with a complex supply chain relationship where unexpected downtime of a machine can cause production to stop at several factories. A data scientist wants to analyze sensor data from the factories to identify equipment in need of preemptive maintenance and then dispatch a service team to prevent unplanned downtime. The sensor readings from a single machine can include up to 200 data points including temperatures, voltages, vibrations, RPMs, and pressure readings. To collect this sensor data, the manufacturer deployed Wi-Fi and LANs across the factories. Even though many factory locations do not have reliable or high- speed internet connectivity, the manufacturer would like to maintain near-real-time inference capabilities. Which deployment architecture for the model will address these business requirements?
-[A] Deploy the model in Amazon SageMaker. Run sensor data through this model to predict which machines need maintenance.
-[B] Deploy the model on AWS IoT Greengrass in each factory. Run sensor data through this model to infer which machines need maintenance.
-[C] Deploy the model to an Amazon SageMaker batch transformation job. Generate inferences in a daily batch report to identify machines that need maintenance.
-[D] Deploy the model in Amazon SageMaker and use an IoT rule to write data to an Amazon DynamoDB table. Consume a DynamoDB stream from the table with an AWS Lambda function to invoke the endpoint.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning Specialist is designing a scalable data storage solution for Amazon SageMaker. There is an existing TensorFlow-based model implemented as a train.py script that relies on static training data that is currently stored as TFRecords. Which method of providing training data to Amazon SageMaker would meet the business requirements with the LEAST development overhead?
-[A] Use Amazon SageMaker script mode and use train.py unchanged. Point the Amazon SageMaker training invocation to the local path of the data without reformatting the training data.
-[B] Use Amazon SageMaker script mode and use train.py unchanged. Put the TFRecord data into an Amazon S3 bucket. Point the Amazon SageMaker training invocation to the S3 bucket without reformatting the training data.
-[C] Rewrite the train.py script to add a section that converts TFRecords to protobuf and ingests the protobuf data instead of TFRecords.
-[D] Prepare the data in the format accepted by Amazon SageMaker. Use AWS Glue or AWS Lambda to reformat and store the data in an Amazon S3 bucket.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A retail company is using Amazon Personalize to provide personalized product recommendations for its customers during a marketing campaign. The company sees a significant increase in sales of recommended items to existing customers immediately after deploying a new solution version, but these sales decrease a short time after deployment. Only historical data from before the marketing campaign is available for training. How should a data scientist adjust the solution?
-[A] Use the event tracker in Amazon Personalize to include real-time user interactions.
-[B] Add user metadata and use the HRNN-Metadata recipe in Amazon Personalize.
-[C] Implement a new solution using the built-in factorization machines (FM) algorithm in Amazon SageMaker.
-[D] Add event type and event value fields to the interactions dataset in Amazon Personalize.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An e commerce company wants to launch a new cloud-based product recommendation feature for its web application. Due to data localization regulations, any sensitive data must not leave its on-premises data center, and the product recommendation model must be trained and tested using nonsensitive data only. Data transfer to the cloud must use IPsec. The web application is hosted on premises with a PostgreSQL database that contains all the data. The company wants the data to be uploaded securely to Amazon S3 each day for model retraining. How should a machine learning specialist meet these requirements?
-[A] Create an AWS Glue job to connect to the PostgreSQL DB instance. Ingest tables without sensitive data through an AWS Site-to-Site VPN connection directly into Amazon S3.
-[B] Create an AWS Glue job to connect to the PostgreSQL DB instance. Ingest all data through an AWS Site-to-Site VPN connection into Amazon S3 while removing sensitive data using a PySpark job.
-[C] Use AWS Database Migration Service (AWS DMS) with table mapping to select PostgreSQL tables with no sensitive data through an SSL connection. Replicate data directly into Amazon S3.
-[D] Use PostgreSQL logical replication to replicate all data to PostgreSQL in Amazon EC2 through AWS Direct Connect with a VPN connection. Use AWS Glue to move data from Amazon EC2 to Amazon S3.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning specialist is running an Amazon SageMaker endpoint using the built-in object detection algorithm on a P3 instance for real-time predictions in a company's production application. When evaluating the model's resource utilization, the specialist notices that the model is using only a fraction of the GPU. Which architecture changes would ensure that provisioned resources are being utilized effectively?
-[A] Redeploy the model as a batch transform job on an M5 instance.
-[B] Redeploy the model on an M5 instance. Attach Amazon Elastic Inference to the instance.
-[C] Redeploy the model on a P3dn instance.
-[D] Deploy the model onto an Amazon Elastic Container Service (Amazon ECS) cluster using a P3 instance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist uses an Amazon SageMaker notebook instance to conduct data exploration and analysis. This requires certain Python packages that are not natively available on Amazon SageMaker to be installed on the notebook instance. How can a machine learning specialist ensure that required packages are automatically available on the notebook instance for the data scientist to use?
-[A] Install AWS Systems Manager Agent on the underlying Amazon EC2 instance and use Systems Manager Automation to execute the package installation commands.
-[B] Create a Jupyter notebook file (.ipynb) with cells containing the package installation commands to execute and place the file under the /etc/init directory of each Amazon SageMaker notebook instance.
-[C] Use the conda package manager from within the Jupyter notebook console to apply the necessary conda packages to the default kernel of the notebook.
-[D] Create an Amazon SageMaker lifecycle configuration with package installation commands and assign the lifecycle configuration to the notebook instance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist needs to identify fraudulent user accounts for a company's ecommerce platform. The company wants the ability to determine if a newly created account is associated with a previously known fraudulent user. The data scientist is using AWS Glue to cleanse the company's application logs during ingestion. Which strategy will allow the data scientist to identify fraudulent accounts?
-[A] Execute the built-in FindDuplicates Amazon Athena query.
-[B] Create a FindMatches machine learning transform in AWS Glue.
-[C] Create an AWS Glue crawler to infer duplicate accounts in the source data.
-[D] Search for duplicate accounts in the AWS Glue Data Catalog.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist has developed a machine learning translation model for English to Japanese by using Amazon SageMaker's built-in seq2seq algorithm with 500,000 aligned sentence pairs. While testing with sample sentences, the data scientist finds that the translation quality is reasonable for an example as short as five words. However, the quality becomes unacceptable if the sentence is 100 words long. Which action will resolve the problem?
-[A] Change preprocessing to use n-grams.
-[B] Add more nodes to the Recurrent Neural Network (RNN) than the largest sentence's word count.
-[C] Adjust hyperparameters related to the attention mechanism.
-[D] Choose a different weight initialization type.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning specialist is developing a proof of concept for government users whose primary concern is security. The specialist is using Amazon SageMaker to train a Convolutional Neural Network (CNN) model for a photo classifier application. The specialist wants to protect the data so that it cannot be accessed and transferred to a remote host by malicious code accidentally installed on the training container. Which action will provide the MOST secure protection?
-[A] Remove Amazon S3 access permissions from the SageMaker execution role.
-[B] Encrypt the weights of the CNN model.
-[C] Encrypt the training and validation dataset.
-[D] Enable network isolation for training jobs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A medical imaging company wants to train a computer vision model to detect areas of concern on patients' CT scans. The company has a large collection of unlabeled CT scans that are linked to each patient and stored in an Amazon S3 bucket. The scans must be accessible to authorized users only. A machine learning engineer needs to build a labeling pipeline. Which set of steps should the engineer take to build the labeling pipeline with the LEAST effort?
-[A] Create a workforce with AWS Identity and Access Management (IAM). Build a labeling tool on Amazon EC2 Queue images for labeling by using Amazon Simple Queue Service (Amazon SQS). Write the labeling instructions.
-[B] Create an Amazon Mechanical Turk workforce and manifest file. Create a labeling job by using the built-in image classification task type in Amazon SageMaker Ground Truth. Write the labeling instructions.
-[C] Create a private workforce and manifest file. Create a labeling job by using the built-in bounding box task type in Amazon SageMaker Ground Truth. Write the labeling instructions.
-[D] Create a workforce with Amazon Cognito. Build a labeling web application with AWS Amplify. Build a labeling workflow backend using AWS Lambda. Write the labeling instructions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company is using Amazon Textract to extract textual data from thousands of scanned text-heavy legal documents daily. The company uses this information to process loan applications automatically. Some of the documents fail business validation and are returned to human reviewers, who investigate the errors. This activity increases the time to process the loan applications. What should the company do to reduce the processing time of loan applications?
-[A] Configure Amazon Textract to route low-confidence predictions to Amazon SageMaker Ground Truth. Perform a manual review on those words before performing a business validation.
-[B] Use an Amazon Textract synchronous operation instead of an asynchronous operation.
-[C] Configure Amazon Textract to route low-confidence predictions to Amazon Augmented AI (Amazon A2I). Perform a manual review on those words before performing a business validation.
-[D] Use Amazon Rekognition's feature to detect text in an image to extract the data from scanned images. Use this information to process the loan applications.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company ingests machine learning (ML) data from web advertising clicks into an Amazon S3 data lake. Click data is added to an Amazon Kinesis data stream by using the Kinesis Producer Library (KPL). The data is loaded into the S3 data lake from the data stream by using an Amazon Kinesis Data Firehose delivery stream. As the data volume increases, an ML specialist notices that the rate of data ingested into Amazon S3 is relatively constant. There also is an increasing backlog of data for Kinesis Data Streams and Kinesis Data Firehose to ingest. Which next step is MOST likely to improve the data ingestion rate into Amazon S3?
-[A] Increase the number of S3 prefixes for the delivery stream to write to.
-[B] Decrease the retention period for the data stream.
-[C] Increase the number of shards for the data stream.
-[D] Add more consumers using the Kinesis Client Library (KCL).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company needs to quickly make sense of a large amount of data and gain insight from it. The data is in different formats, the schemas change frequently, and new data sources are added regularly. The company wants to use AWS services to explore multiple data sources, suggest schemas, and enrich and transform the data. The solution should require the least possible coding effort for the data flows and the least possible infrastructure management. Which combination of AWS services will meet these requirements?
-[A] Amazon EMR for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
-[B] Amazon Kinesis Data Analytics for data ingestion. Amazon EMR for data discovery, enrichment, and transformation. Amazon Redshift for querying and analyzing the results in Amazon S3.
-[C] AWS Glue for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
-[D] AWS Data Pipeline for data transfer. AWS Step Functions for orchestrating AWS Lambda jobs for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company is converting a large number of unstructured paper receipts into images. The company wants to create a model based on natural language processing (NLP) to find relevant entities such as date, location, and notes, as well as some custom entities such as receipt numbers. The company is using optical character recognition (OCR) to extract text for data labeling. However, documents are in different structures and formats, and the company is facing challenges with setting up the manual workflows for each document type. Additionally, the company trained a named entity recognition (NER) model for custom entity detection using a small sample size. This model has a very low confidence score and will require retraining with a large dataset. Which solution for text extraction and entity detection will require the LEAST amount of effort?
-[A] Extract text from receipt images by using Amazon Textract. Use the Amazon SageMaker BlazingText algorithm to train on the text for entities and custom entities.
-[B] Extract text from receipt images by using a deep learning OCR model from the AWS Marketplace. Use the NER deep learning model to extract entities.
-[C] Extract text from receipt images by using Amazon Textract. Use Amazon Comprehend for entity detection, and use Amazon Comprehend custom entity recognition for custom entity detection.
-[D] Extract text from receipt images by using a deep learning OCR model from the AWS Marketplace. Use Amazon Comprehend for entity detection, and use Amazon Comprehend custom entity recognition for custom entity detection.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A company is building a predictive maintenance model based on machine learning (ML). The data is stored in a fully private Amazon S3 bucket that is encrypted at rest with AWS Key Management Service (AWS KMS) CMKs. An ML specialist must run data preprocessing by using an Amazon SageMaker Processing job that is triggered from code in an Amazon SageMaker notebook. The job should read data from Amazon S3, process it, and upload it back to the same S3 bucket. The preprocessing code is stored in a container image in Amazon Elastic Container Registry (Amazon ECR). The ML specialist needs to grant permissions to ensure a smooth data preprocessing workflow. Which set of actions should the ML specialist take to meet these requirements?
-[A] Create an IAM role that has permissions to create Amazon SageMaker Processing jobs, S3 read and write access to the relevant S3 bucket, and appropriate KMS and ECR permissions. Attach the role to the SageMaker notebook instance. Create an Amazon SageMaker Processing job from the notebook.
-[B] Create an IAM role that has permissions to create Amazon SageMaker Processing jobs. Attach the role to the SageMaker notebook instance. Create an Amazon SageMaker Processing job with an IAM role that has read and write permissions to the relevant S3 bucket, and appropriate KMS and ECR permissions.
-[C] Create an IAM role that has permissions to create Amazon SageMaker Processing jobs and to access Amazon ECR. Attach the role to the SageMaker notebook instance. Set up both an S3 endpoint and a KMS endpoint in the default VPC. Create Amazon SageMaker Processing jobs from the notebook.
-[D] Create an IAM role that has permissions to create Amazon SageMaker Processing jobs. Attach the role to the SageMaker notebook instance. Set up an S3 endpoint in the default VPC. Create Amazon SageMaker Processing jobs with the access key and secret key of the IAM user with appropriate KMS and ECR permissions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist has been running an Amazon SageMaker notebook instance for a few weeks. During this time, a new version of Jupyter Notebook was released along with additional software updates. The security team mandates that all running SageMaker notebook instances use the latest security and software updates provided by SageMaker. How can the data scientist meet this requirements?
-[A] Call the CreateNotebookInstanceLifecycleConfig API operation.
-[B] Create a new SageMaker notebook instance and mount the Amazon Elastic Block Store (Amazon EBS) volume from the original instance.
-[C] Stop and then restart the SageMaker notebook instance.
-[D] Call the UpdateNotebookInstanceLifecycleConfig API operation.
-</t>
-  </si>
-  <si>
     <t>Answer : C
 Collaborative filtering based on user interactions and correlations to identify patterns in the customer database.</t>
   </si>
@@ -2790,157 +2379,24 @@
 Stop and then restart the SageMaker notebook instance.</t>
   </si>
   <si>
-    <t xml:space="preserve">A data scientist must build a custom recommendation model in Amazon SageMaker for an online retail company. Due to the nature of the company's products, customers buy only 4-5 products every 5-10 years. So, the company relies on a steady stream of new customers. When a new customer signs up, the company collects data on the customer's preferences. Below is a sample of the data available to the data scientist. How should the data scientist split the dataset into a training and test set for this use case?
-[A] Shuffle all interaction data. Split off the last 10% of the interaction data for the test set.
-[B] Identify the most recent 10% of interactions for each user. Split off these interactions for the test set.
-[C] Identify the 10% of users with the least interaction data. Split off all interaction data from these users for the test set.
-[D] Randomly select 10% of the users. Split off all interaction data from these users for the test set.
-</t>
-  </si>
-  <si>
     <t>Answer : B
 Identify the most recent 10% of interactions for each user. Split off these interactions for the test set.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Machine Learning Specialist is assigned to a Fraud Detection team and must tune an XGBoost model, which is working appropriately for test data. However, with unknown data, it is not working as expected. The existing parameters are provided as follows. Which parameter tuning guidelines should the Specialist follow to avoid overfitting?
-[A] Increase the max_depth parameter value.
-[B] Lower the max_depth parameter value.
-[C] Update the objective to binary:logistic.
-[D] Lower the min_child_weight parameter value.
-</t>
-  </si>
-  <si>
     <t>Answer : B
 Lower the max_depth parameter value.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Data Scientist is building a Linear Regression model and will use resulting p-values to evaluate the statistical significance of each coefficient. Upon inspection of the dataset, the Data Scientist discovers that most of the features are normally distributed. The plot of one feature in the dataset is shown in the graphic. What transformation should the Data Scientist apply to satisfy the statistical assumptions of the Linear Regression model?
-[A] Exponential transformation.
-[B] Logarithmic transformation.
-[C] Polynomial transformation.
-[D] Sinusoidal transformation.
-</t>
-  </si>
-  <si>
     <t>Answer : B
 Logarithmic transformation.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Machine Learning Specialist is attempting to build a Linear Regression model. Given the displayed residual plot only, what is the MOST likely problem with the model?
-[A] Linear Regression is inappropriate. The residuals do not have constant variance.
-[B] Linear Regression is inappropriate. The underlying data has outliers.
-[C] Linear Regression is appropriate. The residuals have a zero mean.
-[D] Linear Regression is appropriate. The residuals have constant variance.
-</t>
-  </si>
-  <si>
     <t>Answer : A
 Linear Regression is inappropriate. The residuals do not have constant variance.</t>
   </si>
   <si>
-    <t xml:space="preserve">A large company has developed a BI application that generates reports and dashboards using data collected from various operational metrics. The company wants to provide executives with an enhanced experience so they can use natural language to get data from the reports. The company wants the executives to be able ask questions using written and spoken interfaces. Which combination of services can be used to build this conversational interface?
-(Choose three.)
-[A] Alexa for Business.
-[B] Amazon Connect.
-[C] Amazon Lex.
-[D] Amazon Polly.
-[E] Amazon Comprehend.
-[F] Amazon Transcribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A health care company is planning to use neural networks to classify their X-ray images into normal and abnormal classes. The labeled data is divided into a training set of 1,000 images and a test set of 200 images. The initial training of a neural network model with 50 hidden layers yielded 99% accuracy on the training set, but only 55% accuracy on the test set. What changes should the Specialist consider to solve this issue?
-(Choose three.)
-[A] Choose a higher number of layers.
-[B] Choose a lower number of layers.
-[C] Choose a smaller learning rate.
-[D] Enable dropout.
-[E] Include all the images from the test set in the training set.
-[F] Enable early stopping.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Scientist needs to analyze employment data. The dataset contains approximately 10 million observations on people across 10 different features. During the preliminary analysis, the Data Scientist notices that income and age distributions are not normal. While income levels shows a right skew as expected, with fewer individuals having a higher income, the age distribution also shows a right skew, with fewer older individuals participating in the workforce. Which feature transformations can the Data Scientist apply to fix the incorrectly skewed data?
-(Choose two.)
-[A] Cross-validation.
-[B] Numerical value binning.
-[C] High-degree polynomial transformation.
-[D] Logarithmic transformation.
-[E] One hot encoding.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Machine Learning team runs its own training algorithm on Amazon SageMaker. The training algorithm requires external assets. The team needs to submit both its own algorithm code and algorithm-specific parameters to Amazon SageMaker. What combination of services should the team use to build a custom algorithm in Amazon SageMaker?
-(Choose two.)
-[A] AWS Secrets Manager.
-[B] AWS CodeStar.
-[C] Amazon ECR.
-[D] Amazon ECS.
-[E] Amazon S3.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Data Scientist is building a model to predict customer churn using a dataset of 100 continuous numerical features. The Marketing team has not provided any insight about which features are relevant for churn prediction. The Marketing team wants to interpret the model and see the direct impact of relevant features on the model outcome. While training a Logistic Regression model, the Data Scientist observes that there is a wide gap between the training and validation set accuracy. Which methods can the Data Scientist use to improve the model performance and satisfy the Marketing team's needs?
-(Choose two.)
-[A] Add L1 regularization to the classifier.
-[B] Add features to the dataset.
-[C] Perform recursive feature elimination.
-[D] Perform t-distributed stochastic neighbor embedding (t-SNE).
-[E] Perform linear discriminant analysis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning (ML) specialist wants to secure calls to the Amazon SageMaker Service API. The specialist has configured Amazon VPC with a VPC interface endpoint for the Amazon SageMaker Service API and is attempting to secure traffic from specific sets of instances and IAM users. The VPC is configured with a single public subnet. Which combination of steps should the ML specialist take to secure the traffic?
-(Choose two.)
-[A] Add a VPC endpoint policy to allow access to the IAM users.
-[B] Modify the users' IAM policy to allow access to Amazon SageMaker Service API calls only.
-[C] Modify the security group on the endpoint network interface to restrict access to the instances.
-[D] Modify the ACL on the endpoint network interface to restrict access to the instances.
-[E] Add a SageMaker Runtime VPC endpoint interface to the VPC.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A logistics company needs a forecast model to predict next month's inventory requirements for a single item in 10 warehouses. A machine learning specialist uses Amazon Forecast to develop a forecast model from 3 years of monthly data. There is no missing data. The specialist selects the DeepAR+ algorithm to train a predictor. The predictor means absolute percentage error (MAPE) is much larger than the MAPE produced by the current human forecasters. Which changes to the CreatePredictor API call could improve the MAPE?
-(Choose two.)
-[A] Set PerformAutoML to true.
-[B] Set ForecastHorizon to 4.
-[C] Set ForecastFrequency to W for weekly.
-[D] Set PerformHPO to true.
-[E] Set FeaturizationMethodName to filling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data scientist wants to use Amazon Forecast to build a forecasting model for inventory demand for a retail company. The company has provided a dataset of historic inventory demand for its products as a .csv file stored in an Amazon S3 bucket. The table below shows a sample of the dataset. How should the data scientist transform the data?
-[A] Use ETL jobs in AWS Glue to separate the dataset into a target time series dataset and an item metadata dataset. Upload both datasets as .csv files to Amazon S3.
-[B] Use a Jupyter notebook in Amazon SageMaker to separate the dataset into a related time series dataset and an item metadata dataset. Upload both datasets as tables in Amazon Aurora.
-[C] Use AWS Batch jobs to separate the dataset into a target time series dataset, a related time series dataset, and an item metadata dataset. Upload them directly to Forecast from a local machine.
-[D] Use a Jupyter notebook in Amazon SageMaker to transform the data into the optimized protobuf recordIO format. Upload the dataset in this format to Amazon S3.
-</t>
-  </si>
-  <si>
     <t>Answer : A
 Use ETL jobs in AWS Glue to separate the dataset into a target time series dataset and an item metadata dataset. Upload both datasets as .csv files to Amazon S3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A financial company is trying to detect credit card fraud. The company observed that, on average, 2% of credit card transactions were fraudulent. A data scientist trained a classifier on a year's worth of credit card transactions data. The model needs to identify the fraudulent transactions (positives) from the regular ones (negatives). The company's goal is to accurately capture as many positives as possible. Which metrics should the data scientist use to optimize the model?
-(Choose two.)
-[A] Specificity.
-[B] False positive rate.
-[C] Accuracy.
-[D] Area under the precision-recall curve.
-[E] True positive rate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A financial services company wants to adopt Amazon SageMaker as its default data science environment. The company's data scientists run machine learning (ML) models on confidential financial data. The company is worried about data egress and wants an ML engineer to secure the environment. Which mechanisms can the ML engineer use to control data egress from SageMaker?
-(Choose three.)
-[A] Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.
-[B] Use SCPs to restrict access to SageMaker.
-[C] Disable root access on the SageMaker notebook instances.
-[D] Enable network isolation for training jobs and models.
-[E] Restrict notebook presigned URLs to specific IPs used by the company.
-[F] Protect data with encryption at rest and in transit. Use AWS Key Management Service (AWS KMS) to manage encryption keys.
-</t>
   </si>
   <si>
     <t>Answers : C,E,F
@@ -2992,16 +2448,6 @@
 </t>
   </si>
   <si>
-    <t>A retail company wants to update its customer support system. The company wants to implement automatic routing of customer claims to different queues to prioritize the claims by category.
-Currently, an operator manually performs the category assignment and routing. After the operator classifies and routes the claim, the company stores the claim's record in a central database. The claim's record includes the claim's category.
-The company has no data science team or experience in the field of machine learning (ML). The company's small development team needs a solution that requires no ML expertise.
-Which solution meets these requirements?
-A. Export the database to a .csv file with two columns: claim_label and claim_text. Use the Amazon SageMaker Object2Vec algorithm and the .csv file to train a model. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
-B. Export the database to a .csv file with one column: claim_text. Use the Amazon SageMaker Latent Dirichlet Allocation (LDA) algorithm and the .csv file to train a model. Use the LDA algorithm to detect labels automatically. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
-C. Use Amazon Textract to process the database and automatically detect two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the extracted information to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.
-D. Export the database to a .csv file with two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the .csv file to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.</t>
-  </si>
-  <si>
     <t>Answer : D
 Export the database to a .csv file with two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the .csv file to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.
 A. NO - Object2Vec is unsupervised, it will create vector representations but not assign to a category the claims
@@ -3015,7 +2461,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A data scientist has a dataset of machine part images stored in Amazon Elastic File System (Amazon EFS). The data scientist needs to use Amazon SageMaker to create and train an image classification machine learning model based on this dataset. Because of budget and time constraints, management wants the data scientist to create and train a model with the least number of steps and integration work required.
+    <t>Answer: C
+Explanation:
+If this is a ComputerVision problem augmentation can help and we may consider A an option. However in analyzing customer historic data, there is no easy way to increase randomization in training. If you go deep into modelling and coding. When you build model with tensorflow/pytorch, most of the time the trainloader is already sampling in data in random manner (with shuffle enable). What we usually do to reduce overfitting is by adding dropout.</t>
+  </si>
+  <si>
+    <t>Answers : B,D,F
+Use SCPs to restrict access to SageMaker.
+Enable network isolation for training jobs and models.
+Protect data with encryption at rest and in transit. Use AWS Key Management Service (AWS KMS) to manage encryption keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data science team is planning to build a natural language processing (NLP) application. 
+The application's text preprocessing stage will include part-of-speech tagging and key phase extraction. 
+The preprocessed text will be input to a custom classification algorithm that the data science team has already written and trained using Apache MXNet.
+Which solution can the team build MOST quickly to meet these requirements?
+A. Use Amazon Comprehend for the part-of-speech tagging, key phase extraction, and classification tasks.
+B. Use an NLP library in Amazon SageMaker for the part-of-speech tagging. Use Amazon Comprehend for the key phase extraction. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
+C. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use Amazon SageMaker built-in Latent Dirichlet Allocation (LDA) algorithm to build the custom classifier.
+D. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist has a dataset of machine part images stored in Amazon Elastic File System (Amazon EFS). 
+The data scientist needs to use Amazon SageMaker to create and train an image classification machine learning model based on this dataset. 
+Because of budget and time constraints, management wants the data scientist to create and train a model with the least number of steps and integration work required.
 How should the data scientist meet these requirements?
 A. Mount the EFS file system to a SageMaker notebook and run a script that copies the data to an Amazon FSx for Lustre file system. Run the SageMaker training job with the FSx for Lustre file system as the data source.
 B. Launch a transient Amazon EMR cluster. Configure steps to mount the EFS file system and copy the data to an Amazon S3 bucket by using S3DistCp. Run the SageMaker training job with Amazon S3 as the data source.
@@ -3024,22 +2494,753 @@
 </t>
   </si>
   <si>
-    <t>Answer: C
-Explanation:
-If this is a ComputerVision problem augmentation can help and we may consider A an option. However in analyzing customer historic data, there is no easy way to increase randomization in training. If you go deep into modelling and coding. When you build model with tensorflow/pytorch, most of the time the trainloader is already sampling in data in random manner (with shuffle enable). What we usually do to reduce overfitting is by adding dropout.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data science team is planning to build a natural language processing (NLP) application. The application's text preprocessing stage will include part-of-speech tagging and key phase extraction. The preprocessed text will be input to a custom classification algorithm that the data science team has already written and trained using Apache MXNet.
-Which solution can the team build MOST quickly to meet these requirements?
-A. Use Amazon Comprehend for the part-of-speech tagging, key phase extraction, and classification tasks.
-B. Use an NLP library in Amazon SageMaker for the part-of-speech tagging. Use Amazon Comprehend for the key phase extraction. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
-C. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use Amazon SageMaker built-in Latent Dirichlet Allocation (LDA) algorithm to build the custom classifier.
-D. Use Amazon Comprehend for the part-of-speech tagging and key phase extraction tasks. Use AWS Deep Learning Containers with Amazon SageMaker to build the custom classifier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A machine learning (ML) specialist has prepared and used a custom container image with Amazon SageMaker to train an image classification model. The ML specialist is performing hyperparameter optimization (HPO) with this custom container image to produce a higher quality image classifier.
-The ML specialist needs to determine whether HPO with the SageMaker built-in image classification algorithm will produce a better model than the model produced by HPO with the custom container image. All ML experiments and HPO jobs must be invoked from scripts inside SageMaker Studio notebooks.
+    <t>A retail company wants to update its customer support system. 
+The company wants to implement automatic routing of customer claims to different queues to prioritize the claims by category.
+Currently, an operator manually performs the category assignment and routing. 
+After the operator classifies and routes the claim, the company stores the claim's record in a central database. 
+The claim's record includes the claim's category.
+The company has no data science team or experience in the field of machine learning (ML). 
+The company's small development team needs a solution that requires no ML expertise.
+Which solution meets these requirements?
+A. Export the database to a .csv file with two columns: claim_label and claim_text. Use the Amazon SageMaker Object2Vec algorithm and the .csv file to train a model. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+B. Export the database to a .csv file with one column: claim_text. Use the Amazon SageMaker Latent Dirichlet Allocation (LDA) algorithm and the .csv file to train a model. Use the LDA algorithm to detect labels automatically. Use SageMaker to deploy the model to an inference endpoint. Develop a service in the application to use the inference endpoint to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+C. Use Amazon Textract to process the database and automatically detect two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the extracted information to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.
+D. Export the database to a .csv file with two columns: claim_label and claim_text. Use Amazon Comprehend custom classification and the .csv file to train the custom classifier. Develop a service in the application to use the Amazon Comprehend API to process incoming claims, predict the labels, and route the claims to the appropriate queue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist has been running an Amazon SageMaker notebook instance for a few weeks. 
+During this time, a new version of Jupyter Notebook was released along with additional software updates. 
+The security team mandates that all running SageMaker notebook instances use the latest security and software updates provided by SageMaker. 
+How can the data scientist meet this requirements?
+A. Call the CreateNotebookInstanceLifecycleConfig API operation.
+B. Create a new SageMaker notebook instance and mount the Amazon Elastic Block Store (Amazon EBS) volume from the original instance.
+C. Stop and then restart the SageMaker notebook instance.
+D. Call the UpdateNotebookInstanceLifecycleConfig API operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company is building a predictive maintenance model based on machine learning (ML). 
+The data is stored in a fully private Amazon S3 bucket that is encrypted at rest with AWS Key Management Service (AWS KMS) CMKs. 
+An ML specialist must run data preprocessing by using an Amazon SageMaker Processing job that is triggered from code in an Amazon SageMaker notebook. 
+The job should read data from Amazon S3, process it, and upload it back to the same S3 bucket. 
+The preprocessing code is stored in a container image in Amazon Elastic Container Registry (Amazon ECR). 
+The ML specialist needs to grant permissions to ensure a smooth data preprocessing workflow. 
+Which set of actions should the ML specialist take to meet these requirements?
+A. Create an IAM role that has permissions to create Amazon SageMaker Processing jobs, S3 read and write access to the relevant S3 bucket, and appropriate KMS and ECR permissions. Attach the role to the SageMaker notebook instance. Create an Amazon SageMaker Processing job from the notebook.
+B. Create an IAM role that has permissions to create Amazon SageMaker Processing jobs. Attach the role to the SageMaker notebook instance. Create an Amazon SageMaker Processing job with an IAM role that has read and write permissions to the relevant S3 bucket, and appropriate KMS and ECR permissions.
+C. Create an IAM role that has permissions to create Amazon SageMaker Processing jobs and to access Amazon ECR. Attach the role to the SageMaker notebook instance. Set up both an S3 endpoint and a KMS endpoint in the default VPC. Create Amazon SageMaker Processing jobs from the notebook.
+D. Create an IAM role that has permissions to create Amazon SageMaker Processing jobs. Attach the role to the SageMaker notebook instance. Set up an S3 endpoint in the default VPC. Create Amazon SageMaker Processing jobs with the access key and secret key of the IAM user with appropriate KMS and ECR permissions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company is converting a large number of unstructured paper receipts into images. 
+The company wants to create a model based on natural language processing (NLP) to find relevant entities such as date, location, and notes, as well as some custom entities such as receipt numbers. 
+The company is using optical character recognition (OCR) to extract text for data labeling. 
+However, documents are in different structures and formats, and the company is facing challenges with setting up the manual workflows for each document type. 
+Additionally, the company trained a named entity recognition (NER) model for custom entity detection using a small sample size. 
+This model has a very low confidence score and will require retraining with a large dataset. 
+Which solution for text extraction and entity detection will require the LEAST amount of effort?
+A. Extract text from receipt images by using Amazon Textract. Use the Amazon SageMaker BlazingText algorithm to train on the text for entities and custom entities.
+B. Extract text from receipt images by using a deep learning OCR model from the AWS Marketplace. Use the NER deep learning model to extract entities.
+C. Extract text from receipt images by using Amazon Textract. Use Amazon Comprehend for entity detection, and use Amazon Comprehend custom entity recognition for custom entity detection.
+D. Extract text from receipt images by using a deep learning OCR model from the AWS Marketplace. Use Amazon Comprehend for entity detection, and use Amazon Comprehend custom entity recognition for custom entity detection.
+</t>
+  </si>
+  <si>
+    <t>A financial services company wants to adopt Amazon SageMaker as its default data science environment. 
+The company's data scientists run machine learning (ML) models on confidential financial data. 
+The company is worried about data egress and wants an ML engineer to secure the environment. 
+Which mechanisms can the ML engineer use to control data egress from SageMaker?
+(Choose three.)
+A. Connect to SageMaker by using a VPC interface endpoint powered by AWS PrivateLink.
+B. Use SCPs to restrict access to SageMaker.
+C. Disable root access on the SageMaker notebook instances.
+D. Enable network isolation for training jobs and models.
+E. Restrict notebook presigned URLs to specific IPs used by the company.
+F. Protect data with encryption at rest and in transit. Use AWS Key Management Service (AWS KMS) to manage encryption keys.</t>
+  </si>
+  <si>
+    <t>A company is using Amazon Textract to extract textual data from thousands of scanned text-heavy legal documents daily. 
+The company uses this information to process loan applications automatically. 
+Some of the documents fail business validation and are returned to human reviewers, who investigate the errors. 
+This activity increases the time to process the loan applications. 
+What should the company do to reduce the processing time of loan applications?
+A. Configure Amazon Textract to route low-confidence predictions to Amazon SageMaker Ground Truth. Perform a manual review on those words before performing a business validation.
+B. Use an Amazon Textract synchronous operation instead of an asynchronous operation.
+C. Configure Amazon Textract to route low-confidence predictions to Amazon Augmented AI (Amazon A2I). Perform a manual review on those words before performing a business validation.
+D. Use Amazon Rekognition's feature to detect text in an image to extract the data from scanned images. Use this information to process the loan applications.</t>
+  </si>
+  <si>
+    <t>A medical imaging company wants to train a computer vision model to detect areas of concern on patients' CT scans. 
+The company has a large collection of unlabeled CT scans that are linked to each patient and stored in an Amazon S3 bucket. 
+The scans must be accessible to authorized users only. 
+A machine learning engineer needs to build a labeling pipeline. 
+Which set of steps should the engineer take to build the labeling pipeline with the LEAST effort?
+A. Create a workforce with AWS Identity and Access Management (IAM). Build a labeling tool on Amazon EC2 Queue images for labeling by using Amazon Simple Queue Service (Amazon SQS). Write the labeling instructions.
+B. Create an Amazon Mechanical Turk workforce and manifest file. Create a labeling job by using the built-in image classification task type in Amazon SageMaker Ground Truth. Write the labeling instructions.
+C. Create a private workforce and manifest file. Create a labeling job by using the built-in bounding box task type in Amazon SageMaker Ground Truth. Write the labeling instructions.
+D. Create a workforce with Amazon Cognito. Build a labeling web application with AWS Amplify. Build a labeling workflow backend using AWS Lambda. Write the labeling instructions.</t>
+  </si>
+  <si>
+    <t>A machine learning specialist is developing a proof of concept for government users whose primary concern is security. 
+The specialist is using Amazon SageMaker to train a Convolutional Neural Network (CNN) model for a photo classifier application. 
+The specialist wants to protect the data so that it cannot be accessed and transferred to a remote host by malicious code accidentally installed on the training container. 
+Which action will provide the MOST secure protection?
+A. Remove Amazon S3 access permissions from the SageMaker execution role.
+B. Encrypt the weights of the CNN model.
+C. Encrypt the training and validation dataset.
+D. Enable network isolation for training jobs.</t>
+  </si>
+  <si>
+    <t>A financial company is trying to detect credit card fraud. 
+The company observed that, on average, 2% of credit card transactions were fraudulent. 
+A data scientist trained a classifier on a year's worth of credit card transactions data. 
+The model needs to identify the fraudulent transactions (positives) from the regular ones (negatives). 
+The company's goal is to accurately capture as many positives as possible. 
+Which metrics should the data scientist use to optimize the model?
+(Choose two.)
+A. Specificity.
+B. False positive rate.
+C. Accuracy.
+D. Area under the precision-recall curve.
+E. True positive rate.</t>
+  </si>
+  <si>
+    <t>A data scientist has developed a machine learning translation model for English to Japanese by using Amazon SageMaker's built-in seq2seq algorithm with 500,000 aligned sentence pairs. 
+While testing with sample sentences, the data scientist finds that the translation quality is reasonable for an example as short as five words. 
+However, the quality becomes unacceptable if the sentence is 100 words long. 
+Which action will resolve the problem?
+A. Change preprocessing to use n-grams.
+B. Add more nodes to the Recurrent Neural Network (RNN) than the largest sentence's word count.
+C. Adjust hyperparameters related to the attention mechanism.
+D. Choose a different weight initialization type.</t>
+  </si>
+  <si>
+    <t>A data scientist needs to identify fraudulent user accounts for a company's ecommerce platform. 
+The company wants the ability to determine if a newly created account is associated with a previously known fraudulent user. 
+The data scientist is using AWS Glue to cleanse the company's application logs during ingestion. 
+Which strategy will allow the data scientist to identify fraudulent accounts?
+A. Execute the built-in FindDuplicates Amazon Athena query.
+B. Create a FindMatches machine learning transform in AWS Glue.
+C. Create an AWS Glue crawler to infer duplicate accounts in the source data.
+D. Search for duplicate accounts in the AWS Glue Data Catalog.</t>
+  </si>
+  <si>
+    <t>A data scientist uses an Amazon SageMaker notebook instance to conduct data exploration and analysis. 
+This requires certain Python packages that are not natively available on Amazon SageMaker to be installed on the notebook instance. 
+How can a machine learning specialist ensure that required packages are automatically available on the notebook instance for the data scientist to use?
+A. Install AWS Systems Manager Agent on the underlying Amazon EC2 instance and use Systems Manager Automation to execute the package installation commands.
+B. Create a Jupyter notebook file (.ipynb) with cells containing the package installation commands to execute and place the file under the /etc/init directory of each Amazon SageMaker notebook instance.
+C. Use the conda package manager from within the Jupyter notebook console to apply the necessary conda packages to the default kernel of the notebook.
+D. Create an Amazon SageMaker lifecycle configuration with package installation commands and assign the lifecycle configuration to the notebook instance.</t>
+  </si>
+  <si>
+    <t>A machine learning specialist is running an Amazon SageMaker endpoint using the built-in object detection algorithm on a P3 instance for real-time predictions in a company's production application. 
+When evaluating the model's resource utilization, the specialist notices that the model is using only a fraction of the GPU. 
+Which architecture changes would ensure that provisioned resources are being utilized effectively?
+A. Redeploy the model as a batch transform job on an M5 instance.
+B. Redeploy the model on an M5 instance. Attach Amazon Elastic Inference to the instance.
+C. Redeploy the model on a P3dn instance.
+D. Deploy the model onto an Amazon Elastic Container Service (Amazon ECS) cluster using a P3 instance.</t>
+  </si>
+  <si>
+    <t>A data scientist wants to use Amazon Forecast to build a forecasting model for inventory demand for a retail company. 
+The company has provided a dataset of historic inventory demand for its products as a .csv file stored in an Amazon S3 bucket. 
+The table below shows a sample of the dataset. 
+timestmap     item_id     demand     category     lead_time
+...
+How should the data scientist transform the data?
+A. Use ETL jobs in AWS Glue to separate the dataset into a target time series dataset and an item metadata dataset. Upload both datasets as .csv files to Amazon S3.
+B. Use a Jupyter notebook in Amazon SageMaker to separate the dataset into a related time series dataset and an item metadata dataset. Upload both datasets as tables in Amazon Aurora.
+C. Use AWS Batch jobs to separate the dataset into a target time series dataset, a related time series dataset, and an item metadata dataset. Upload them directly to Forecast from a local machine.
+D. Use a Jupyter notebook in Amazon SageMaker to transform the data into the optimized protobuf recordIO format. Upload the dataset in this format to Amazon S3.</t>
+  </si>
+  <si>
+    <t>A logistics company needs a forecast model to predict next month's inventory requirements for a single item in 10 warehouses. 
+A machine learning specialist uses Amazon Forecast to develop a forecast model from 3 years of monthly data. 
+There is no missing data. 
+The specialist selects the DeepAR+ algorithm to train a predictor. 
+The predictor means absolute percentage error (MAPE) is much larger than the MAPE produced by the current human forecasters. 
+Which changes to the CreatePredictor API call could improve the MAPE?
+(Choose two.)
+A. Set PerformAutoML to true.
+B. Set ForecastHorizon to 4.
+C. Set ForecastFrequency to W for weekly.
+D. Set PerformHPO to true.
+E. Set FeaturizationMethodName to filling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e commerce company wants to launch a new cloud-based product recommendation feature for its web application. 
+Due to data localization regulations, any sensitive data must not leave its on-premises data center, and the product recommendation model must be trained and tested using nonsensitive data only. 
+Data transfer to the cloud must use IPsec. 
+The web application is hosted on premises with a PostgreSQL database that contains all the data. 
+The company wants the data to be uploaded securely to Amazon S3 each day for model retraining. 
+How should a machine learning specialist meet these requirements?
+A.Create an AWS Glue job to connect to the PostgreSQL DB instance. Ingest tables without sensitive data through an AWS Site-to-Site VPN connection directly into Amazon S3.
+B.Create an AWS Glue job to connect to the PostgreSQL DB instance. Ingest all data through an AWS Site-to-Site VPN connection into Amazon S3 while removing sensitive data using a PySpark job.
+C.Use AWS Database Migration Service (AWS DMS) with table mapping to select PostgreSQL tables with no sensitive data through an SSL connection. Replicate data directly into Amazon S3.
+D.Use PostgreSQL logical replication to replicate all data to PostgreSQL in Amazon EC2 through AWS Direct Connect with a VPN connection. Use AWS Glue to move data from Amazon EC2 to Amazon S3.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning (ML) specialist wants to secure calls to the Amazon SageMaker Service API. 
+The specialist has configured Amazon VPC with a VPC interface endpoint for the Amazon SageMaker Service API and is attempting to secure traffic from specific sets of instances and IAM users. 
+The VPC is configured with a single public subnet. 
+Which combination of steps should the ML specialist take to secure the traffic?
+(Choose two.)
+A.Add a VPC endpoint policy to allow access to the IAM users.
+B.Modify the users' IAM policy to allow access to Amazon SageMaker Service API calls only.
+C.Modify the security group on the endpoint network interface to restrict access to the instances.
+D.Modify the ACL on the endpoint network interface to restrict access to the instances.
+E.Add a SageMaker Runtime VPC endpoint interface to the VPC.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A retail company is using Amazon Personalize to provide personalized product recommendations for its customers during a marketing campaign. 
+The company sees a significant increase in sales of recommended items to existing customers immediately after deploying a new solution version, but these sales decrease a short time after deployment. 
+Only historical data from before the marketing campaign is available for training. 
+How should a data scientist adjust the solution?
+A.Use the event tracker in Amazon Personalize to include real-time user interactions.
+B.Add user metadata and use the HRNN-Metadata recipe in Amazon Personalize.
+C.Implement a new solution using the built-in factorization machines (FM) algorithm in Amazon SageMaker.
+D.Add event type and event value fields to the interactions dataset in Amazon Personalize.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is designing a scalable data storage solution for Amazon SageMaker. 
+There is an existing TensorFlow-based model implemented as a train.py script that relies on static training data that is currently stored as TFRecords. 
+Which method of providing training data to Amazon SageMaker would meet the business requirements with the LEAST development overhead?
+A.Use Amazon SageMaker script mode and use train.py unchanged. Point the Amazon SageMaker training invocation to the local path of the data without reformatting the training data.
+B.Use Amazon SageMaker script mode and use train.py unchanged. Put the TFRecord data into an Amazon S3 bucket. Point the Amazon SageMaker training invocation to the S3 bucket without reformatting the training data.
+C.Rewrite the train.py script to add a section that converts TFRecords to protobuf and ingests the protobuf data instead of TFRecords.
+D.Prepare the data in the format accepted by Amazon SageMaker. Use AWS Glue or AWS Lambda to reformat and store the data in an Amazon S3 bucket.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manufacturer is operating a large number of factories with a complex supply chain relationship where unexpected downtime of a machine can cause production to stop at several factories. 
+A data scientist wants to analyze sensor data from the factories to identify equipment in need of preemptive maintenance and then dispatch a service team to prevent unplanned downtime. 
+The sensor readings from a single machine can include up to 200 data points including temperatures, voltages, vibrations, RPMs, and pressure readings. 
+To collect this sensor data, the manufacturer deployed Wi-Fi and LANs across the factories. 
+Even though many factory locations do not have reliable or high- speed internet connectivity, the manufacturer would like to maintain near-real-time inference capabilities. 
+Which deployment architecture for the model will address these business requirements?
+A.Deploy the model in Amazon SageMaker. Run sensor data through this model to predict which machines need maintenance.
+B.Deploy the model on AWS IoT Greengrass in each factory. Run sensor data through this model to infer which machines need maintenance.
+C.Deploy the model to an Amazon SageMaker batch transformation job. Generate inferences in a daily batch report to identify machines that need maintenance.
+D.Deploy the model in Amazon SageMaker and use an IoT rule to write data to an Amazon DynamoDB table. Consume a DynamoDB stream from the table with an AWS Lambda function to invoke the endpoint.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An agricultural company is interested in using machine learning to detect specific types of weeds in a 100-acre grassland field. 
+Currently, the company uses tractor-mounted cameras to capture multiple images of the field as 10 - 10 grids. 
+The company also has a large training dataset that consists of annotated images of popular weed classes like broadleaf and non-broadleaf docks. 
+The company wants to build a weed detection model that will detect specific types of weeds and the location of each type within the field. 
+Once the model is ready, it will be hosted on Amazon SageMaker endpoints. 
+The model will perform real-time inferencing using the images captured by the cameras. 
+Which approach should a Machine Learning Specialist take to obtain accurate predictions?
+A.Prepare the images in RecordIO format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an image classification algorithm to categorize images into various weed classes.
+B.Prepare the images in Apache Parquet format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an object- detection single-shot multibox detector (SSD) algorithm.
+C.Prepare the images in RecordIO format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an object- detection single-shot multibox detector (SSD) algorithm.
+D.Prepare the images in Apache Parquet format and upload them to Amazon S3. Use Amazon SageMaker to train, test, and validate the model using an image classification algorithm to categorize images into various weed classes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning (ML) specialist uploads a dataset to an Amazon S3 bucket that is protected by server-side encryption with AWS KMS keys (SSE-KMS). 
+The ML specialist needs to ensure that an Amazon SageMaker notebook instance can read the dataset that is in Amazon S3. 
+Which solution will meet these requirements?
+A.Define security groups to allow all HTTP inbound and outbound traffic. Assign the security groups to the SageMaker notebook instance.
+B.Configure the SageMaker notebook instance to have access to the VPC. Grant permission in the AWS Key Management Service (AWS KMS) key policy to the notebook's VPC.
+C.Assign an IAM role that provides S3 read access for the dataset to the SageMaker notebook. Grant permission in the KMS key policy to the IAM role.
+D.Assign the same KMS key that encrypts the data in Amazon S3 to the SageMaker notebook instance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist has explored and sanitized a dataset in preparation for the modeling phase of a supervised learning task. 
+The statistical dispersion can vary widely between features, sometimes by several orders of magnitude. 
+Before moving on to the modeling phase, the data scientist wants to ensure that the prediction performance on the production data is as accurate as possible. 
+Which sequence of steps should the data scientist take to meet these requirements?
+A.Apply random sampling to the dataset. Then split the dataset into training, validation, and test sets.
+B.Split the dataset into training, validation, and test sets. Then rescale the training set and apply the same scaling to the validation and test sets.
+C.Rescale the dataset. Then split the dataset into training, validation, and test sets.
+D.Split the dataset into training, validation, and test sets. Then rescale the training set, the validation set, and the test set independently.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manufacturing company has a large set of labeled historical sales data. 
+The manufacturer would like to predict how many units of a particular part should be produced each quarter. 
+Which machine learning approach should be used to solve this problem?
+A.Logistic Regression.
+B.Random Cut Forest (RCF).
+C.Principal Component Analysis (PCA).
+D.Linear Regression.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is required to build a supervised image-recognition model to identify a cat. 
+The ML Specialist performs some tests and records the following results for a neural network-based image classifier. 
+Total number of images available = 1,000 Test set images = 100 (constant test set). 
+The ML Specialist notices that, in over 75% of the misclassified images, the cats were held upside down by their owners. 
+Which techniques can be used by the ML Specialist to improve this specific test error?
+A. Increase the training data by adding variation in rotation for training images.
+B. Increase the number of epochs for model training.
+C. Increase the number of layers for the neural network.
+D. Increase the dropout rate for the second-to-last layer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is working with a large cybersecurity company that manages security events in real time for companies around the world. 
+The cybersecurity company wants to design a solution that will allow it to use machine learning to score malicious events as anomalies on the data as it is being ingested. 
+The company also wants be able to save the results in its data lake for later processing and analysis. 
+What is the MOST efficient way to accomplish these tasks?
+A. Ingest the data using Amazon Kinesis Data Firehose, and use Amazon Kinesis Data Analytics Random Cut Forest (RCF) for anomaly detection. Then use Kinesis Data Firehose to stream the results to Amazon S3.
+B. Ingest the data into Apache Spark Streaming using Amazon EMR, and use Spark MLlib with K-means to perform anomaly detection. Then store the results in an Apache Hadoop Distributed File System (HDFS) using Amazon EMR with a replication factor of three as the data lake.
+C. Ingest the data and store it in Amazon S3. Use AWS Batch along with the AWS Deep Learning AMIs to train a K-means model using TensorFlow on the data in Amazon S3.
+D. Ingest the data and store it in Amazon S3. Have an AWS Glue job that is triggered on demand transform the new data. Then use the built-in Random Cut Forest (RCF) model within Amazon SageMaker to detect anomalies in the data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large consumer goods manufacturer has the following products on sale: 34 different toothpaste variants. 
+48 different toothbrush variants. 43 different mouthwash variants. 
+The entire sales history of all these products is available in Amazon S3. 
+Currently, the company is using custom-built autoregressive integrated moving average (ARIMA) models to forecast demand for these products. 
+The company wants to predict the demand for a new product that will soon be launched. 
+Which solution should a Machine Learning Specialist apply?
+A. Train a custom ARIMA model to forecast demand for the new product.
+B. Train an Amazon SageMaker DeepAR algorithm to forecast demand for the new product.
+C. Train an Amazon SageMaker K-means clustering algorithm to forecast demand for the new product.
+D. Train a custom XGBoost model to forecast demand for the new product.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An aircraft engine manufacturing company is measuring 200 performance metrics in a time-series. 
+Engineers want to detect critical manufacturing defects in near-real time during testing. 
+All of the data needs to be stored for offline analysis. 
+What approach would be the MOST effective to perform near-real time defect detection?
+A. Use AWS IoT Analytics for ingestion, storage, and further analysis. Use Jupyter notebooks from within AWS IoT Analytics to carry out analysis for anomalies.
+B. Use Amazon S3 for ingestion, storage, and further analysis. Use an Amazon EMR cluster to carry out Apache Spark ML K-means clustering to determine anomalies.
+C. Use Amazon S3 for ingestion, storage, and further analysis. Use the Amazon SageMaker Random Cut Forest (RCF) algorithm to determine anomalies.
+D. Use Amazon Kinesis Data Firehose for ingestion and Amazon Kinesis Data Analytics Random Cut Forest (RCF) to perform anomaly detection. Use Kinesis Data Firehose to store data in Amazon S3 for further analysis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist is building a model to predict customer churn using a dataset of 100 continuous numerical features. 
+The Marketing team has not provided any insight about which features are relevant for churn prediction. 
+The Marketing team wants to interpret the model and see the direct impact of relevant features on the model outcome. 
+While training a Logistic Regression model, the Data Scientist observes that there is a wide gap between the training and validation set accuracy. 
+Which methods can the Data Scientist use to improve the model performance and satisfy the Marketing team's needs?
+(Choose two.)
+A. Add L1 regularization to the classifier.
+B. Add features to the dataset.
+C. Perform recursive feature elimination.
+D. Perform t-distributed stochastic neighbor embedding (t-SNE).
+E. Perform linear discriminant analysis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company uses a long short-term memory (LSTM) model to evaluate the risk factors of a particular energy sector. 
+The model reviews multi-page text documents to analyze each sentence of the text and categorize it as either a potential risk or no risk. 
+The model is not performing well, even though the Data Scientist has experimented with many different network structures and tuned the corresponding hyperparameters. 
+Which approach will provide the MAXIMUM performance boost?
+A. Initialize the words by term frequency-inverse document frequency (TF-IDF) vectors pretrained on a large collection of news articles related to the energy sector.
+B. Use gated recurrent units (GRUs) instead of LSTM and run the training process until the validation loss stops decreasing.
+C. Reduce the learning rate and run the training process until the training loss stops decreasing.
+D. Initialize the words by word2vec embeddings pretrained on a large collection of news articles related to the energy sector.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning team runs its own training algorithm on Amazon SageMaker. 
+The training algorithm requires external assets. 
+The team needs to submit both its own algorithm code and algorithm-specific parameters to Amazon SageMaker. 
+What combination of services should the team use to build a custom algorithm in Amazon SageMaker?
+(Choose two.)
+A. AWS Secrets Manager.
+B. AWS CodeStar.
+C. Amazon ECR.
+D. Amazon ECS.
+E. Amazon S3.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A trucking company is collecting live image data from its fleet of trucks across the globe. 
+The data is growing rapidly and approximately 100 GB of new data is generated every day. 
+The company wants to explore machine learning uses cases while ensuring the data is only accessible to specific IAM users. 
+Which storage option provides the most processing flexibility and will allow access control with IAM?
+A. Use a database, such as Amazon DynamoDB, to store the images, and set the IAM policies to restrict access to only the desired IAM users.
+B. Use an Amazon S3-backed data lake to store the raw images, and set up the permissions using bucket policies.
+C. Setup up Amazon EMR with Hadoop Distributed File System (HDFS) to store the files, and restrict access to the EMR instances using IAM policies.
+D. Configure Amazon EFS with IAM policies to make the data available to Amazon EC2 instances owned by the IAM users.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist previously trained a Logistic Regression model using scikit-learn on a local machine, and the Specialist now wants to deploy it to production for inference only. 
+What steps should be taken to ensure Amazon SageMaker can host a model that was trained locally?
+A. Build the Docker image with the inference code. Tag the Docker image with the registry hostname and upload it to Amazon ECR.
+B. Serialize the trained model so the format is compressed for deployment. Tag the Docker image with the registry hostname and upload it to Amazon S3.
+C. Serialize the trained model so the format is compressed for deployment. Build the image and upload it to Docker Hub.
+D. Build the Docker image with the inference code. Configure Docker Hub and upload the image to Amazon ECR.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist is training a multilayer perception (MLP) on a dataset with multiple classes. 
+The target class of interest is unique compared to the other classes within the dataset, but it does not achieve and acceptable recall metric. 
+The Data Scientist has already tried varying the number and size of the MLP's hidden layers, which has not significantly improved the results. 
+A solution to improve recall must be implemented as quickly as possible. 
+Which techniques should be used to meet these requirements?
+A. Gather more data using Amazon Mechanical Turk and then retrain.
+B. Train an anomaly detection model instead of an MLP.
+C. Train an XGBoost model instead of an MLP.
+D. Add class weights to the MLP's loss function and then retrain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A credit card company wants to build a credit scoring model to help predict whether a new credit card applicant will default on a credit card payment. 
+The company has collected data from a large number of sources with thousands of raw attributes. 
+Early experiments to train a classification model revealed that many attributes are highly correlated, the large number of features slows down the training speed significantly, and that there are some overfitting issues. 
+The Data Scientist on this project would like to speed up the model training time without losing a lot of information from the original dataset. 
+Which feature engineering technique should the Data Scientist use to meet the objectives?
+A. Run self-correlation on all features and remove highly correlated features.
+B. Normalize all numerical values to be between 0 and 1.
+C. Use an autoencoder or Principal Component Analysis (PCA) to replace original features with new features.
+D. Cluster raw data using K-means and use sample data from each cluster to build a new dataset.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is applying a linear least squares regression model to a dataset with 1,000 records and 50 features. 
+Prior to training, the ML Specialist notices that two features are perfectly linearly dependent. 
+Why could this be an issue for the linear least squares regression model?
+A. It could cause the backpropagation algorithm to fail during training.
+B. It could create a singular matrix during optimization, which fails to define a unique solution.
+C. It could modify the loss function during optimization, causing it to fail during training.
+D. It could introduce non-linear dependencies within the data, which could invalidate the linear assumptions of the model.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A real estate company wants to create a machine learning model for predicting housing prices based on a historical dataset. 
+The dataset contains 32 features. 
+Which model will meet the business requirement?
+A. Logistic Regression.
+B. Linear Regression.
+C. K-means.
+D. Principal Component Analysis (PCA).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist needs to analyze employment data. 
+The dataset contains approximately 10 million observations on people across 10 different features. 
+During the preliminary analysis, the Data Scientist notices that income and age distributions are not normal. 
+While income levels shows a right skew as expected, with fewer individuals having a higher income, the age distribution also shows a right skew, with fewer older individuals participating in the workforce. 
+Which feature transformations can the Data Scientist apply to fix the incorrectly skewed data?
+(Choose two.)
+A. Cross-validation.
+B. Numerical value binning.
+C. High-degree polynomial transformation.
+D. Logarithmic transformation.
+E. One hot encoding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist wants to bring a custom algorithm to Amazon SageMaker. 
+The Specialist implements the algorithm in a Docker container supported by Amazon SageMaker. 
+How should the Specialist package the Docker container so that Amazon SageMaker can launch the training correctly?
+A. Modify the bash_profile file in the container and add a bash command to start the training program.
+B. Use CMD config in the Dockerfile to add the training program as a CMD of the image.
+C. Configure the training program as an ENTRYPOINT named train.
+D. Copy the training program to directory /opt/ml/train.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is planning to create a long-running Amazon EMR cluster. 
+The EMR cluster will have 1 master node, 10 core nodes, and 20 task nodes. 
+To save on costs, the Specialist will use Spot Instances in the EMR cluster. 
+Which nodes should the Specialist launch on Spot Instances?
+A. Master node.
+B. Any of the core nodes.
+C. Any of the task nodes.
+D. Both core and task nodes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is given a structured dataset on the shopping habits of a company's customer base. 
+The dataset contains thousands of columns of data and hundreds of numerical columns for each customer. 
+The Specialist wants to identify whether there are natural groupings for these columns across all customers and visualize the results as quickly as possible. 
+What approach should the Specialist take to accomplish these tasks?
+A. Embed the numerical features using the t-distributed stochastic neighbor embedding (t-SNE) algorithm and create a scatter plot.
+B. Run K-means using the Euclidean distance measure for different values of k and create an elbow plot.
+C. Embed the numerical features using the t-distributed stochastic neighbor embedding (t-SNE) algorithm and create a line graph.
+D. Run K-means using the Euclidean distance measure for different values of k and create box plots for each numerical column within each cluster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company wants to predict the sale prices of houses based on available historical sales data. 
+The target variable in the company's dataset is the sale price. 
+The features include parameters such as the lot size, living area measurements, non-living area measurements, number of bedrooms, number of bathrooms, year built, and postal code. 
+The company wants to use multi-variable Linear Regression to predict house sale prices. 
+Which step should a machine learning specialist take to remove features that are irrelevant for the analysis and reduce the model's complexity?
+A. Plot a histogram of the features and compute their standard deviation. Remove features with high variance.
+B. Plot a histogram of the features and compute their standard deviation. Remove features with low variance.
+C. Build a heatmap showing the correlation of the dataset against itself. Remove features with low mutual correlation scores.
+D. Run a correlation check of all features against the target variable. Remove features with low target variable correlation scores.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A health care company is planning to use neural networks to classify their X-ray images into normal and abnormal classes. 
+The labeled data is divided into a training set of 1,000 images and a test set of 200 images. 
+The initial training of a neural network model with 50 hidden layers yielded 99% accuracy on the training set, but only 55% accuracy on the test set. 
+What changes should the Specialist consider to solve this issue?
+(Choose three.)
+A. Choose a higher number of layers.
+B. Choose a lower number of layers.
+C. Choose a smaller learning rate.
+D. Enable dropout.
+E. Include all the images from the test set in the training set.
+F. Enable early stopping.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large company has developed a BI application that generates reports and dashboards using data collected from various operational metrics. 
+The company wants to provide executives with an enhanced experience so they can use natural language to get data from the reports. 
+The company wants the executives to be able ask questions using written and spoken interfaces. 
+Which combination of services can be used to build this conversational interface?
+(Choose three.)
+A. Alexa for Business.
+B. Amazon Connect.
+C. Amazon Lex.
+D. Amazon Polly.
+E. Amazon Comprehend.
+F. Amazon Transcribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is attempting to build a Linear Regression model. 
+Given the displayed residual plot only, what is the MOST likely problem with the model?
+A. Linear Regression is inappropriate. The residuals do not have constant variance.
+B. Linear Regression is inappropriate. The underlying data has outliers.
+C. Linear Regression is appropriate. The residuals have a zero mean.
+D. Linear Regression is appropriate. The residuals have constant variance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist is developing a binary classifier to predict whether a patient has a particular disease on a series of test results. 
+The Data Scientist has data on 400 patients randomly selected from the population. 
+The disease is seen in 3% of the population. 
+Which cross-validation strategy should the Data Scientist adopt?
+A. A k-fold cross-validation strategy with k=5.
+B. A stratified k-fold cross-validation strategy with k=5.
+C. A k-fold cross-validation strategy with k=5 and 3 repeats.
+D. An 80/20 stratified split between training and validation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company uses camera images of the tops of items displayed on store shelves to determine which items were removed and which ones still remain. 
+After several hours of data labeling, the company has a total of 1,000 hand-labeled images covering 10 distinct items. 
+The training results were poor. 
+Which machine learning approach fulfills the company's long-term needs?
+A. Convert the images to grayscale and retrain the model.
+B. Reduce the number of distinct items from 10 to 2, build the model, and iterate.
+C. Attach different colored labels to each item, take the images again, and build the model.
+D. Augment training data for each item using image variants like inversions and translations, build the model, and iterate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning specialist works for a fruit processing company and needs to build a system that categorizes apples into three types. 
+The specialist has collected a dataset that contains 150 images for each type of apple and applied transfer learning on a neural network that was pretrained on ImageNet with this dataset. 
+The company requires at least 85% accuracy to make use of the model. 
+After an exhaustive grid search, the optimal hyperparameters produced the following: 68% accuracy on the training set. 
+67% accuracy on the validation set. 
+What can the machine learning specialist do to improve the system's accuracy?
+A. Upload the model to an Amazon SageMaker notebook instance and use the Amazon SageMaker HPO feature to optimize the model's hyperparameters.
+B. Add more data to the training set and retrain the model using transfer learning to reduce the bias.
+C. Use a neural network model with more layers that are pretrained on ImageNet and apply transfer learning to increase the variance.
+D. Train a new model using the current neural network architecture.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A technology startup is using complex deep neural networks and GPU compute to recommend the company's products to its existing customers based upon each customer's habits and interactions. 
+The solution currently pulls each dataset from an Amazon S3 bucket before loading the data into a TensorFlow model pulled from the company's Git repository that runs locally. 
+This job then runs for several hours while continually outputting its progress to the same S3 bucket. 
+The job can be paused, restarted, and continued at any time in the event of a failure, and is run from a central queue. 
+Senior managers are concerned about the complexity of the solution's resource management and the costs involved in repeating the process regularly. 
+They ask for the workload to the automated so it runs once a week, starting Monday and completing by the close of business Friday. 
+Which architecture should be used to scale the solution at the lowest cost?
+A. Implement the solution using AWS Deep Learning Containers and run the container as a job using AWS Batch on a GPU-compatible Spot Instance.
+B. Implement the solution using a low-cost GPU compatible Amazon EC2 instance and use the AWS Instance Scheduler to schedule the task.
+C. Implement the solution using AWS Deep Learning Containers, run the workload using AWS Fargate running on Spot Instances, and then schedule the task using the built-in task scheduler.
+D. Implement the solution using Amazon ECS running on Spot Instances and schedule the task using the ECS service scheduler.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist is building a Linear Regression model and will use resulting p-values to evaluate the statistical significance of each coefficient. 
+Upon inspection of the dataset, the Data Scientist discovers that most of the features are normally distributed. 
+The plot of one feature in the dataset is shown in the graphic. 
+What transformation should the Data Scientist apply to satisfy the statistical assumptions of the Linear Regression model?
+A. Exponential transformation.
+B. Logarithmic transformation.
+C. Polynomial transformation.
+D. Sinusoidal transformation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is deciding between building a naive Bayesian model or a full Bayesian network for a classification problem. 
+The Specialist computes the Pearson correlation coefficients between each feature and finds that their absolute values range between 0.1 to 0.95. 
+Which model describes the underlying data in this situation?
+A. A naive Bayesian model, since the features are all conditionally independent.
+B. A full Bayesian network, since the features are all conditionally independent.
+C. A naive Bayesian model, since some of the features are statistically dependent.
+D. A full Bayesian network, since some of the features are statistically dependent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is working for an online retailer that wants to run analytics on every customer visit, processed through a machine learning pipeline. 
+The data needs to be ingested by Amazon Kinesis Data Streams at up to 100 transactions per second, and the JSON data blob is 100 KB in size. 
+What is the MINIMUM number of shards in Kinesis Data Streams the Specialist should use to successfully ingest this data?
+A. 1 shards.
+B. 10 shards.
+C. 100 shards.
+D. 1,000 shards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A media company with a very large archive of unlabeled images, text, audio, and video footage wishes to index its assets to allow rapid identification of relevant content by the Research team. 
+The company wants to use machine learning to accelerate the efforts of its in-house researchers who have limited machine learning expertise. 
+Which is the FASTEST route to index the assets?
+A. Use Amazon Rekognition, Amazon Comprehend, and Amazon Transcribe to tag data into distinct categories/classes.
+B. Create a set of Amazon Mechanical Turk Human Intelligence Tasks to label all footage.
+C. Use Amazon Transcribe to convert speech to text. Use the Amazon SageMaker Neural Topic Model (NTM) and Object Detection algorithms to tag data into distinct categories/classes.
+D. Use the AWS Deep Learning AMI and Amazon EC2 GPU instances to create custom models for audio transcription and topic modeling, and use object detection to tag data into distinct categories/classes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is assigned to a Fraud Detection team and must tune an XGBoost model, which is working appropriately for test data. 
+However, with unknown data, it is not working as expected. 
+The existing parameters are provided as follows. 
+Which parameter tuning guidelines should the Specialist follow to avoid overfitting?
+A. Increase the max_depth parameter value.
+B. Lower the max_depth parameter value.
+C. Update the objective to binary:logistic.
+D. Lower the min_child_weight parameter value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company that promotes healthy sleep patterns by providing cloud-connected devices currently hosts a sleep tracking application on AWS. 
+The application collects device usage information from device users. 
+The company's Data Science team is building a machine learning model to predict if and when a user will stop utilizing the company's devices. 
+Predictions from this model are used by a downstream application that determines the best approach for contacting users. 
+The Data Science team is building multiple versions of the machine learning model to evaluate each version against the company's business goals. 
+To measure long-term effectiveness, the team wants to run multiple versions of the model in parallel for long periods of time, with the ability to control the portion of inferences served by the models. 
+Which solution satisfies these requirements with MINIMAL effort?
+A. Build and host multiple models in Amazon SageMaker. Create multiple Amazon SageMaker endpoints, one for each model. Programmatically control invoking different models for inference at the application layer.
+B. Build and host multiple models in Amazon SageMaker. Create an Amazon SageMaker endpoint configuration with multiple production variants. Programmatically control the portion of the inferences served by the multiple models by updating the endpoint configuration.
+C. Build and host multiple models in Amazon SageMaker Neo to take into account different types of medical devices. Programmatically control which model is invoked for inference based on the medical device type.
+D. Build and host multiple models in Amazon SageMaker. Create a single endpoint that accesses multiple models. Use Amazon SageMaker batch transform to control invoking the different models through the single endpoint.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Data Scientist received a set of insurance records, each consisting of a record ID, the final outcome among 200 categories, and the date of the final outcome. 
+Some partial information on claim contents is also provided, but only for a few of the 200 categories. 
+For each outcome category, there are hundreds of records distributed over the past 3 years. 
+The Data Scientist wants to predict how many claims to expect in each category from month to month, a few months in advance. 
+What type of machine learning model should be used?
+A. Classification month-to-month using supervised learning of the 200 categories based on claim contents.
+B. Reinforcement learning using claim IDs and timestamps where the agent will identify how many claims in each category to expect from month to month.
+C. Forecasting using claim IDs and timestamps to identify how many claims in each category to expect from month to month.
+D. Classification with supervised learning of the categories for which partial information on claim contents is provided, and forecasting using claim IDs and timestamps for all other categories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist is developing a pipeline to ingest streaming web traffic data. 
+The data scientist needs to implement a process to identify unusual web traffic patterns as part of the pipeline. 
+The patterns will be used downstream for alerting and incident response. 
+The data scientist has access to unlabeled historic data to use, if needed. 
+The solution needs to do the following: Calculate an anomaly score for each web traffic entry. 
+Adapt unusual event identification to changing web patterns over time. 
+Which approach should the data scientist implement to meet these requirements?
+A. Use historic web traffic data to train an anomaly detection model using the Amazon SageMaker Random Cut Forest (RCF) built-in model. Use an Amazon Kinesis Data Stream to process the incoming web traffic data. Attach a preprocessing AWS Lambda function to perform data enrichment by calling the RCF model to calculate the anomaly score for each record.
+B. Use historic web traffic data to train an anomaly detection model using the Amazon SageMaker built-in XGBoost model. Use an Amazon Kinesis Data Stream to process the incoming web traffic data. Attach a preprocessing AWSLambda function to perform data enrichment by calling the XGBoost model to calculate the anomaly score for each record.
+C. Collect the streaming data using Amazon Kinesis Data Firehose. Map the delivery stream as an input source for Amazon Kinesis Data Analytics. Write a SQL query to run in real time against the streaming data with the k-NearestNeighbors (kNN) SQL extension to calculate anomaly scores for each record using a tumbling window.
+D. Collect the streaming data using Amazon Kinesis Data Firehose. Map the delivery stream as an input source for Amazon Kinesis Data Analytics. Write a SQL query to run in real time against the streaming data with the Amazon RandomCut Forest (RCF) SQL extension to calculate anomaly scores for each record using a sliding window.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which characteristic applies to a catalog backup?
+A. Catalog staging files deleted after a successful catalog backup.
+B. A catalog backup can be configured to send disaster recovery information to an e-mail address.
+C. A catalog backup must fit on a single tape.
+D. A catalog backup shuts down the NetBackup database.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom has been tasked to install Check Point R80 in a distributed deployment. 
+Before Tom installs the systems this way, how many machines will he need if he does NOT include a SmartConsole machine in his calculations?
+A. One machine, but it needs to be installed using SecurePlatform for compatibility purposes.
+B. One machine.
+C. Two machines.
+D. Three machines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A retail chain has been ingesting purchasing records from its network of 20,000 stores to Amazon S3 using Amazon Kinesis Data Firehose. 
+To support training an improved machine learning model, training records will require new but simple transformations, and some attributes will be combined. 
+The model needs to be retrained daily. 
+Given the large number of stores and the legacy data ingestion, which change will require the LEAST amount of development effort?
+A. Require that the stores to switch to capturing their data locally on AWS Storage Gateway for loading into Amazon S3, then use AWS Glue to do the transformation.
+B. Deploy an Amazon EMR cluster running Apache Spark with the transformation logic, and have the cluster run each day on the accumulating records in Amazon S3, outputting new/transformed records to Amazon S3.
+C. Spin up a fleet of Amazon EC2 instances with the transformation logic, have them transform the data records accumulating on Amazon S3, and output the transformed records to Amazon S3.
+D. Insert an Amazon Kinesis Data Analytics stream downstream of the Kinesis Data Firehose stream that transforms raw record attributes into simple transformed values using SQL.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist receives customer data for an online shopping website. 
+The data includes demographics, past visits, and locality information. 
+The Specialist must develop a machine learning approach to identify the customer shopping patterns, preferences, and trends to enhance the website-for better service and smart recommendations. 
+Which solution should the Specialist recommend?
+A. Latent Dirichlet Allocation (LDA) for the given collection of discrete data to identify patterns in the customer database.
+B. A neural network with a minimum of three layers and random initial weights to identify patterns in the customer database.
+C. Collaborative filtering based on user interactions and correlations to identify patterns in the customer database.
+D. Random Cut Forest (RCF) over random subsamples to identify patterns in the customer database.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company needs to quickly make sense of a large amount of data and gain insight from it. 
+The data is in different formats, the schemas change frequently, and new data sources are added regularly. 
+The company wants to use AWS services to explore multiple data sources, suggest schemas, and enrich and transform the data. 
+The solution should require the least possible coding effort for the data flows and the least possible infrastructure management. 
+Which combination of AWS services will meet these requirements?
+A. Amazon EMR for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
+B. Amazon Kinesis Data Analytics for data ingestion. Amazon EMR for data discovery, enrichment, and transformation. Amazon Redshift for querying and analyzing the results in Amazon S3.
+C. AWS Glue for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
+D. AWS Data Pipeline for data transfer. AWS Step Functions for orchestrating AWS Lambda jobs for data discovery, enrichment, and transformation. Amazon Athena for querying and analyzing the results in Amazon S3 using standard SQL. Amazon QuickSight for reporting and getting insights.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A company ingests machine learning (ML) data from web advertising clicks into an Amazon S3 data lake. 
+Click data is added to an Amazon Kinesis data stream by using the Kinesis Producer Library (KPL). 
+The data is loaded into the S3 data lake from the data stream by using an Amazon Kinesis Data Firehose delivery stream. 
+As the data volume increases, an ML specialist notices that the rate of data ingested into Amazon S3 is relatively constant. 
+There also is an increasing backlog of data for Kinesis Data Streams and Kinesis Data Firehose to ingest. 
+Which next step is MOST likely to improve the data ingestion rate into Amazon S3?
+A. Increase the number of S3 prefixes for the delivery stream to write to.
+B. Decrease the retention period for the data stream.
+C. Increase the number of shards for the data stream.
+D. Add more consumers using the Kinesis Client Library (KCL).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data scientist must build a custom recommendation model in Amazon SageMaker for an online retail company. 
+Due to the nature of the company's products, customers buy only 4-5 products every 5-10 years. 
+So, the company relies on a steady stream of new customers. 
+When a new customer signs up, the company collects data on the customer's preferences. 
+Below is a sample of the data available to the data scientist. 
+How should the data scientist split the dataset into a training and test set for this use case?
+A. Shuffle all interaction data. Split off the last 10% of the interaction data for the test set.
+B. Identify the most recent 10% of interactions for each user. Split off these interactions for the test set.
+C. Identify the 10% of users with the least interaction data. Split off all interaction data from these users for the test set.
+D. Randomly select 10% of the users. Split off all interaction data from these users for the test set.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A machine learning (ML) specialist has prepared and used a custom container image with Amazon SageMaker to train an image classification model. 
+The ML specialist is performing hyperparameter optimization (HPO) with this custom container image to produce a higher quality image classifier.
+The ML specialist needs to determine whether HPO with the SageMaker built-in image classification algorithm will produce a better model than the model produced by HPO with the custom container image. 
+All ML experiments and HPO jobs must be invoked from scripts inside SageMaker Studio notebooks.
 How can the ML specialist meet these requirements in the LEAST amount of time?
 A. Prepare a custom HPO script that runs multiple training jobs in SageMaker Studio in local mode to tune the model of the custom container image. Use the automatic model tuning capability of SageMaker with early stopping enabled to tune the model of the built-in image classification algorithm. Select the model with the best objective metric value.
 B. Use SageMaker Autopilot to tune the model of the custom container image. Use the automatic model tuning capability of SageMaker with early stopping enabled to tune the model of the built-in image classification algorithm. Compare the objective metric values of the resulting models of the SageMaker AutopilotAutoML job and the automatic model tuning job. Select the model with the best objective metric value.
@@ -3048,10 +3249,28 @@
 </t>
   </si>
   <si>
-    <t>Answers : B,D,F
-Use SCPs to restrict access to SageMaker.
-Enable network isolation for training jobs and models.
-Protect data with encryption at rest and in transit. Use AWS Key Management Service (AWS KMS) to manage encryption keys.</t>
+    <t xml:space="preserve">A Data Science team within a large company uses Amazon SageMaker notebooks to access data stored in Amazon S3 buckets. 
+The IT Security team is concerned that internet-enabled notebook instances create a security vulnerability where malicious code running on the instances could compromise data privacy.
+The company mandates that all instances stay within a secured VPC with no internet access, and data communication traffic must stay within the AWS network.
+How should the Data Science team configure the notebook instance placement to meet these requirements?
+A. Associate the Amazon SageMaker notebook with a private subnet in a VPC. Place the Amazon SageMaker endpoint and S3 buckets within the same VPC.
+B. Associate the Amazon SageMaker notebook with a private subnet in a VPC. Use IAM policies to grant access to Amazon S3 and Amazon SageMaker.
+C. Associate the Amazon SageMaker notebook with a private subnet in a VPC. Ensure the VPC has S3 VPC endpoints and Amazon SageMaker VPC endpoints attached to it.
+D. Associate the Amazon SageMaker notebook with a private subnet in a VPC. Ensure the VPC has a NAT gateway and an associated security group allowing only outbound connections to Amazon S3 and Amazon SageMaker.
+</t>
+  </si>
+  <si>
+    <t>Answers : C
+A. NO - We don't place a S3 bucket in a VPC, it is always in AWS Service Account
+B. NO - without an S3 VPC endpoint, traffic will go through the Internet
+C. YES - We must use the VPC endpoint (either Gateway Endpoint or Interface Endpoint)to comply with this requirement "Data communication traffic must stay within the AWS network".
+D. NO - we need endpoints for both SageMaker and S3 to avoid Internet traffic
+VPC endpoint and NAT gateway are similar, but NAT gateway is for giving resources in the VPC the chance to initiate connections with the internet, whereas a VPC endpoint only allows it to go to other AWS services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers : B
+keywords : bucket, EC2
+</t>
   </si>
 </sst>
 </file>
@@ -5536,19 +5755,19 @@
         <v>97</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="D65" s="13"/>
     </row>
@@ -5557,10 +5776,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D66" s="13"/>
     </row>
@@ -5569,7 +5788,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>22</v>
@@ -5581,10 +5800,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D68" s="13"/>
     </row>
@@ -5593,10 +5812,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" s="13"/>
     </row>
@@ -5605,7 +5824,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>24</v>
@@ -5617,7 +5836,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>31</v>
@@ -5629,10 +5848,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="13"/>
     </row>
@@ -5641,7 +5860,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>29</v>
@@ -5653,10 +5872,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" s="13"/>
     </row>
@@ -5665,7 +5884,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>24</v>
@@ -5677,7 +5896,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>24</v>
@@ -5689,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>31</v>
@@ -5701,7 +5920,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>22</v>
@@ -5713,7 +5932,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>29</v>
@@ -5725,10 +5944,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D80" s="13"/>
     </row>
@@ -5737,10 +5956,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -5749,10 +5968,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D82" s="13"/>
     </row>
@@ -5761,10 +5980,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="13"/>
     </row>
@@ -5773,10 +5992,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D84" s="13"/>
     </row>
@@ -5785,7 +6004,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>22</v>
@@ -5797,10 +6016,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="13"/>
     </row>
@@ -5809,10 +6028,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D87" s="13"/>
     </row>
@@ -5821,10 +6040,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D88" s="13"/>
     </row>
@@ -5833,10 +6052,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D89" s="13"/>
     </row>
@@ -5845,10 +6064,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D90" s="13"/>
     </row>
@@ -5857,10 +6076,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D91" s="13"/>
     </row>
@@ -5869,10 +6088,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D92" s="13"/>
     </row>
@@ -5881,10 +6100,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -5893,10 +6112,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -5905,10 +6124,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D95" s="13"/>
     </row>
@@ -5917,10 +6136,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="13"/>
     </row>
@@ -5929,10 +6148,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D97" s="13"/>
     </row>
@@ -5941,10 +6160,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D98" s="13"/>
     </row>
@@ -5953,10 +6172,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -5965,10 +6184,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D100" s="13"/>
     </row>
@@ -5977,10 +6196,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D101" s="13"/>
     </row>
@@ -5989,10 +6208,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D102" s="13"/>
     </row>
@@ -6001,10 +6220,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D103" s="13"/>
     </row>
@@ -6013,10 +6232,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D104" s="13"/>
     </row>
@@ -6025,10 +6244,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D105" s="13"/>
     </row>
@@ -6037,10 +6256,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D106" s="13"/>
     </row>
@@ -6049,10 +6268,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D107" s="13"/>
     </row>
@@ -6061,10 +6280,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D108" s="13"/>
     </row>
@@ -6073,10 +6292,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D109" s="13"/>
     </row>
@@ -6085,10 +6304,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D110" s="13"/>
     </row>
@@ -6097,10 +6316,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D111" s="13"/>
     </row>
@@ -6109,10 +6328,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D112" s="13"/>
     </row>
@@ -6121,10 +6340,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D113" s="13"/>
     </row>
@@ -6133,10 +6352,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D114" s="13"/>
     </row>
@@ -6145,10 +6364,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D115" s="13"/>
     </row>
@@ -6157,10 +6376,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D116" s="13"/>
     </row>
@@ -6169,10 +6388,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D117" s="13"/>
     </row>
@@ -6181,10 +6400,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D118" s="13"/>
     </row>
@@ -6193,10 +6412,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D119" s="13"/>
     </row>
@@ -6205,10 +6424,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D120" s="13"/>
     </row>
@@ -6217,10 +6436,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D121" s="13"/>
     </row>
@@ -6229,10 +6448,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D122" s="13"/>
     </row>
@@ -6241,10 +6460,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D123" s="13"/>
     </row>
@@ -6253,10 +6472,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D124" s="13"/>
     </row>
@@ -6265,10 +6484,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D125" s="13"/>
     </row>
@@ -6277,10 +6496,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D126" s="13"/>
     </row>
@@ -6289,10 +6508,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D127" s="13"/>
     </row>
@@ -6301,10 +6520,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D128" s="13"/>
     </row>
@@ -6313,10 +6532,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D129" s="13"/>
     </row>
@@ -6325,10 +6544,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D130" s="13"/>
     </row>
@@ -6337,10 +6556,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D131" s="13"/>
     </row>
@@ -6349,10 +6568,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D132" s="13"/>
     </row>
@@ -6361,10 +6580,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D133" s="13"/>
     </row>
@@ -6373,735 +6592,735 @@
         <v>133</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D134" s="13"/>
     </row>
-    <row r="135" spans="1:4" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>229</v>
+        <v>351</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="146.25" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="123.75" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="326.25" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D199" s="13"/>
     </row>
-    <row r="200" spans="1:4" ht="303.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>29</v>
@@ -7113,7 +7332,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>29</v>

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB598D4-FE20-4BE1-AECF-453D87D3AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928D961-195F-4D27-955B-C101A810E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1530" windowWidth="15765" windowHeight="13935" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="11100" yWindow="1530" windowWidth="15765" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="362">
   <si>
     <t>Sn</t>
   </si>
@@ -242,18 +242,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A Machine Learning team uses Amazon SageMaker to train an Apache MXNet handwritten digit classifier model using a research dataset. The team wants to receive a notification when the model is overfitting. Auditors want to view the Amazon SageMaker log activity report to ensure there are no unauthorized API calls. What should the Machine Learning team do to address the requirements with the least amount of code and fewest steps?
-A. Implement an AWS Lambda function to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch
-B. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
-C. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch
-D. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
-E. Implement an AWS Lambda function to log Amazon SageMaker API calls to AWS CloudTrail
-F. Add code to push a custom metric to Amazon CloudWatch
-G. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
-H. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Set up Amazon SNS to receive a notification when the model is overfitting.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Answers : C
 </t>
   </si>
@@ -3271,6 +3259,31 @@
     <t xml:space="preserve">Answers : B
 keywords : bucket, EC2
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning team uses Amazon SageMaker to train an Apache MXNet handwritten digit classifier model using a research dataset. 
+The team wants to receive a notification when the model is overfitting. 
+Auditors want to view the Amazon SageMaker log activity report to ensure there are no unauthorized API calls. What should the Machine Learning team do to address the requirements with the least amount of code and fewest steps?
+A. Implement an AWS Lambda function to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+B. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+C. Implement an AWS Lambda function to log Amazon SageMaker API calls to AWS CloudTrail. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+D. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Set up Amazon SNS to receive a notification when the model is overfitting.
+</t>
+  </si>
+  <si>
+    <t>Answers : B
+Explaination
+AWS CloudTrail provides a history of AWS API calls made on the account. 
+The Machine Learning team can use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. 
+They can then use CloudWatch to create alarms and receive notifications when the model is overfitting.
+To ensure auditors can view the Amazon SageMaker log activity report, the team can add code to push a custom metric to Amazon CloudWatch. This provides a single place to view and analyze logs across all the services and resources in the environment.
+CloudTrail logs captured in S3 without any code/lambda
+The custom metrics can be published to Cloudwatch...test for overfit on MXNET...which will set off an alarm...which can then be subscribed on SNS
+What does this line do?
+	"Add code to push a custom metric to Amazon CloudWatch"
+It creates a metric for overfitting (accuracy of training data and accuracy of test data).
+Reference
+https://docs.aws.amazon.com/sagemaker/latest/dg/logging-using-cloudtrail.html</t>
   </si>
 </sst>
 </file>
@@ -3480,7 +3493,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3488,7 +3501,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4311,7 +4324,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:P31"/>
     </sheetView>
   </sheetViews>
@@ -4346,7 +4359,7 @@
         <v>QN #</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="16" t="str" cm="1">
@@ -4374,12 +4387,13 @@
       <c r="A5" s="8"/>
       <c r="C5" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">+MID(IF(I3,INDIRECT("data!$C" &amp; D3+1),INDIRECT("data!$B" &amp; D3+1)),C34,2000)</f>
-        <v xml:space="preserve">A machine learning team has several large CSV datasets in Amazon S3. Historically, models built with the Amazon SageMaker Linear Learner algorithm have taken hours to train on similar-sized datasets. The team's leaders need to accelerate the training process.
-What can a machine learning specialist do to address this concern?
-A) Use Amazon SageMaker Pipe mode.
-B) Use Amazon Machine Learning to train the models.
-C) Use Amazon Kinesis to stream the data to Amazon SageMaker.
-D) Use AWS Glue to transform the CSV dataset to the JSON format.
+        <v xml:space="preserve">A Machine Learning team uses Amazon SageMaker to train an Apache MXNet handwritten digit classifier model using a research dataset. 
+The team wants to receive a notification when the model is overfitting. 
+Auditors want to view the Amazon SageMaker log activity report to ensure there are no unauthorized API calls. What should the Machine Learning team do to address the requirements with the least amount of code and fewest steps?
+A. Implement an AWS Lambda function to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+B. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+C. Implement an AWS Lambda function to log Amazon SageMaker API calls to AWS CloudTrail. Add code to push a custom metric to Amazon CloudWatch. Create an alarm in CloudWatch with Amazon SNS to receive a notification when the model is overfitting.
+D. Use AWS CloudTrail to log Amazon SageMaker API calls to Amazon S3. Set up Amazon SNS to receive a notification when the model is overfitting.
 </v>
       </c>
       <c r="D5" s="23"/>
@@ -4833,27 +4847,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
+        <control shapeId="1035" r:id="rId4" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4883,27 +4897,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId8" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4979,7 +4993,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5087,15 +5101,15 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -5104,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -5116,7 +5130,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>22</v>
@@ -5128,10 +5142,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="13"/>
     </row>
@@ -5140,10 +5154,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="13"/>
     </row>
@@ -5152,10 +5166,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="13"/>
     </row>
@@ -5164,10 +5178,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -5176,10 +5190,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="13"/>
     </row>
@@ -5188,10 +5202,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="13"/>
     </row>
@@ -5200,10 +5214,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D18" s="13"/>
     </row>
@@ -5212,10 +5226,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="D19" s="13"/>
     </row>
@@ -5224,10 +5238,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="13"/>
     </row>
@@ -5236,10 +5250,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="13"/>
     </row>
@@ -5248,10 +5262,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="13"/>
     </row>
@@ -5260,10 +5274,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="13"/>
     </row>
@@ -5272,10 +5286,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D24" s="13"/>
     </row>
@@ -5284,10 +5298,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="13"/>
     </row>
@@ -5296,10 +5310,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="13"/>
     </row>
@@ -5308,10 +5322,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="13"/>
     </row>
@@ -5320,10 +5334,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="13"/>
     </row>
@@ -5332,10 +5346,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="13"/>
     </row>
@@ -5344,10 +5358,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="13"/>
     </row>
@@ -5356,7 +5370,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>22</v>
@@ -5368,7 +5382,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>22</v>
@@ -5380,10 +5394,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="13"/>
     </row>
@@ -5392,10 +5406,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="D34" s="13"/>
     </row>
@@ -5404,10 +5418,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D35" s="13"/>
     </row>
@@ -5416,10 +5430,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -5428,7 +5442,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>22</v>
@@ -5440,10 +5454,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="13"/>
     </row>
@@ -5452,7 +5466,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>22</v>
@@ -5464,10 +5478,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="13"/>
     </row>
@@ -5476,10 +5490,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="13"/>
     </row>
@@ -5488,10 +5502,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="13"/>
     </row>
@@ -5500,10 +5514,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="13"/>
     </row>
@@ -5512,10 +5526,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="D44" s="13"/>
     </row>
@@ -5524,10 +5538,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="13"/>
     </row>
@@ -5536,10 +5550,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="13"/>
     </row>
@@ -5548,10 +5562,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D47" s="13"/>
     </row>
@@ -5560,10 +5574,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="D48" s="13"/>
     </row>
@@ -5572,7 +5586,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>22</v>
@@ -5584,10 +5598,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D50" s="13"/>
     </row>
@@ -5596,10 +5610,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="13"/>
     </row>
@@ -5608,10 +5622,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="13"/>
     </row>
@@ -5620,7 +5634,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>22</v>
@@ -5632,10 +5646,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="13"/>
     </row>
@@ -5644,10 +5658,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="13"/>
     </row>
@@ -5656,10 +5670,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="13"/>
     </row>
@@ -5668,7 +5682,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>22</v>
@@ -5680,10 +5694,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="D58" s="13"/>
     </row>
@@ -5692,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>22</v>
@@ -5704,7 +5718,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>22</v>
@@ -5716,10 +5730,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="13"/>
     </row>
@@ -5728,10 +5742,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="D62" s="13"/>
     </row>
@@ -5740,10 +5754,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="13"/>
     </row>
@@ -5752,10 +5766,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D64" s="13"/>
     </row>
@@ -5764,10 +5778,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="D65" s="13"/>
     </row>
@@ -5776,10 +5790,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="D66" s="13"/>
     </row>
@@ -5788,7 +5802,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>22</v>
@@ -5800,10 +5814,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="D68" s="13"/>
     </row>
@@ -5812,10 +5826,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="D69" s="13"/>
     </row>
@@ -5824,10 +5838,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="13"/>
     </row>
@@ -5836,10 +5850,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="13"/>
     </row>
@@ -5848,10 +5862,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="D72" s="13"/>
     </row>
@@ -5860,10 +5874,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="13"/>
     </row>
@@ -5872,10 +5886,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="D74" s="13"/>
     </row>
@@ -5884,10 +5898,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="13"/>
     </row>
@@ -5896,10 +5910,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" s="13"/>
     </row>
@@ -5908,10 +5922,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="13"/>
     </row>
@@ -5920,7 +5934,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>22</v>
@@ -5932,10 +5946,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="13"/>
     </row>
@@ -5944,10 +5958,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="D80" s="13"/>
     </row>
@@ -5956,10 +5970,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -5968,10 +5982,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="D82" s="13"/>
     </row>
@@ -5980,10 +5994,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="D83" s="13"/>
     </row>
@@ -5992,10 +6006,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D84" s="13"/>
     </row>
@@ -6004,7 +6018,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>22</v>
@@ -6016,10 +6030,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="D86" s="13"/>
     </row>
@@ -6028,10 +6042,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D87" s="13"/>
     </row>
@@ -6040,10 +6054,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="D88" s="13"/>
     </row>
@@ -6052,10 +6066,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D89" s="13"/>
     </row>
@@ -6064,10 +6078,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="D90" s="13"/>
     </row>
@@ -6076,10 +6090,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="D91" s="13"/>
     </row>
@@ -6088,10 +6102,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="D92" s="13"/>
     </row>
@@ -6100,10 +6114,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -6112,10 +6126,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -6124,10 +6138,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D95" s="13"/>
     </row>
@@ -6136,10 +6150,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D96" s="13"/>
     </row>
@@ -6148,10 +6162,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D97" s="13"/>
     </row>
@@ -6160,10 +6174,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="D98" s="13"/>
     </row>
@@ -6172,10 +6186,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -6184,10 +6198,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="D100" s="13"/>
     </row>
@@ -6196,10 +6210,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D101" s="13"/>
     </row>
@@ -6208,10 +6222,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="D102" s="13"/>
     </row>
@@ -6220,10 +6234,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="D103" s="13"/>
     </row>
@@ -6232,10 +6246,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D104" s="13"/>
     </row>
@@ -6244,10 +6258,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="D105" s="13"/>
     </row>
@@ -6256,10 +6270,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="D106" s="13"/>
     </row>
@@ -6268,10 +6282,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="D107" s="13"/>
     </row>
@@ -6280,10 +6294,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="D108" s="13"/>
     </row>
@@ -6292,10 +6306,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="D109" s="13"/>
     </row>
@@ -6304,10 +6318,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="D110" s="13"/>
     </row>
@@ -6316,10 +6330,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="D111" s="13"/>
     </row>
@@ -6328,10 +6342,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="D112" s="13"/>
     </row>
@@ -6340,10 +6354,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="D113" s="13"/>
     </row>
@@ -6352,10 +6366,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="D114" s="13"/>
     </row>
@@ -6364,10 +6378,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="D115" s="13"/>
     </row>
@@ -6376,10 +6390,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="D116" s="13"/>
     </row>
@@ -6388,10 +6402,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="D117" s="13"/>
     </row>
@@ -6400,10 +6414,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="D118" s="13"/>
     </row>
@@ -6412,10 +6426,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="D119" s="13"/>
     </row>
@@ -6424,10 +6438,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="D120" s="13"/>
     </row>
@@ -6436,10 +6450,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="D121" s="13"/>
     </row>
@@ -6448,10 +6462,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="D122" s="13"/>
     </row>
@@ -6460,10 +6474,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="D123" s="13"/>
     </row>
@@ -6472,10 +6486,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="D124" s="13"/>
     </row>
@@ -6484,10 +6498,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="D125" s="13"/>
     </row>
@@ -6496,10 +6510,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="D126" s="13"/>
     </row>
@@ -6508,10 +6522,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="D127" s="13"/>
     </row>
@@ -6520,10 +6534,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="D128" s="13"/>
     </row>
@@ -6532,10 +6546,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="D129" s="13"/>
     </row>
@@ -6544,10 +6558,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="D130" s="13"/>
     </row>
@@ -6556,10 +6570,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="D131" s="13"/>
     </row>
@@ -6568,10 +6582,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="D132" s="13"/>
     </row>
@@ -6580,10 +6594,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="D133" s="13"/>
     </row>
@@ -6592,10 +6606,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="D134" s="13"/>
     </row>
@@ -6604,10 +6618,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -6615,10 +6629,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -6626,10 +6640,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
@@ -6637,10 +6651,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -6648,10 +6662,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
@@ -6659,10 +6673,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -6670,10 +6684,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -6681,10 +6695,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6692,10 +6706,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
@@ -6703,10 +6717,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6714,10 +6728,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -6725,10 +6739,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="281.25" x14ac:dyDescent="0.25">
@@ -6736,10 +6750,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6747,10 +6761,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6758,10 +6772,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6769,10 +6783,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -6780,10 +6794,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6791,10 +6805,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6802,10 +6816,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6813,10 +6827,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6824,10 +6838,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6835,10 +6849,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6846,10 +6860,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6857,10 +6871,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6868,10 +6882,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6879,10 +6893,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6890,10 +6904,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6901,10 +6915,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -6912,10 +6926,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6923,10 +6937,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6934,10 +6948,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6945,10 +6959,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -6956,10 +6970,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6967,10 +6981,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6978,10 +6992,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -6989,10 +7003,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -7000,10 +7014,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7011,10 +7025,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7022,10 +7036,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7033,10 +7047,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -7044,10 +7058,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="258.75" x14ac:dyDescent="0.25">
@@ -7055,10 +7069,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -7066,10 +7080,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -7077,10 +7091,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7088,10 +7102,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -7099,10 +7113,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
@@ -7110,10 +7124,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -7121,10 +7135,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -7132,10 +7146,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7143,10 +7157,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -7154,10 +7168,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -7165,10 +7179,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7176,10 +7190,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -7187,10 +7201,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
@@ -7198,10 +7212,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7209,10 +7223,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7220,10 +7234,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7231,10 +7245,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
@@ -7242,10 +7256,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
@@ -7253,10 +7267,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -7264,10 +7278,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -7275,10 +7289,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -7286,10 +7300,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="326.25" x14ac:dyDescent="0.25">
@@ -7297,10 +7311,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
@@ -7308,10 +7322,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D199" s="13"/>
     </row>
@@ -7320,10 +7334,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D200" s="13"/>
     </row>
@@ -7332,10 +7346,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D201" s="13"/>
     </row>

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928D961-195F-4D27-955B-C101A810E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4190DB-225F-4CB2-8C94-96FA86761389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="1530" windowWidth="15765" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
@@ -765,20 +765,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A Machine Learning Specialist is using Apache Spark for pre-processing training data As part of the Spark pipeline, the Specialist wants to use Amazon SageMaker for training a model and hosting it Which of the following would the Specialist do to integrate the Spark application with SageMaker? (Select THREE )
-A. Compress the training data into a ZIP file and upload it to a pre-defined Amazon S3 bucket.
-B. Download the AWS SDK for the Spark environment
-C. Install the SageMaker Spark library in the Spark environment.
-D. Convert the DataFrame object to a CSV file, and use the CSV file as input for obtaining inferences from SageMaker.
-E. Use the sageMakerModel. transform method to get inferences from the model hosted in SageMaker
-F. Use the appropriate estimator from the SageMaker Spark Library to train a model.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answers : A,D,E
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Machine Learning Specialist is configuring automatic model tuning in Amazon SageMaker
 When using the hyperparameter optimization feature, which of the following guidelines should be followed to improve optimization?
 Choose the maximum number of hyperparameters supported by
@@ -3284,6 +3270,35 @@
 It creates a metric for overfitting (accuracy of training data and accuracy of test data).
 Reference
 https://docs.aws.amazon.com/sagemaker/latest/dg/logging-using-cloudtrail.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers : B, C, E
+Explanation:
+The SageMaker Spark library is a library that enables Apache Spark applications to integrate with Amazon SageMaker for training and hosting machine learning models.
+The library provides several features, such as:
+Estimators: Classes that allow Spark users to train Amazon SageMaker models and host them on Amazon SageMaker endpoints using the Spark MLlib Pipelines API. 
+The library supports various built-in algorithms, such as linear learner, XGBoost, K-means, etc., as well as custom algorithms using Docker containers.
+Model classes: Classes that wrap Amazon SageMaker models in a Spark MLlib Model abstraction. 
+This allows Spark users to use Amazon SageMaker endpoints for inference within Spark applications. 
+Data sources: Classes that allow Spark users to read data from Amazon S3 using the Spark Data Sources API. The library supports various data formats, such as CSV, LibSVM, RecordIO, etc.
+To integrate the Spark application with SageMaker, the Machine Learning Specialist should do the following:
+Install the SageMaker Spark library in the Spark environment. 
+This can be done by using Maven, pip, or downloading the JAR file from GitHub.
+Use the appropriate estimator from the SageMaker Spark Library to train a model.
+Reference
+https://www.exam4training.com/which-of-the-following-would-the-specialist-do-to-integrate-the-spark-application-with-sagemaker/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Machine Learning Specialist is using Apache Spark for pre-processing training data As part of the Spark pipeline, the Specialist wants to use Amazon SageMaker for training a model and hosting it.
+Which of the following would the Specialist do to integrate the Spark application with SageMaker? (Select THREE )
+A . Download the AWS SDK for the Spark environment
+B . Install the SageMaker Spark library in the Spark environment.
+C . Use the appropriate estimator from the SageMaker Spark Library to train a model.
+D . Compress the training data into a ZIP file and upload it to a pre-defined Amazon S3 bucket.
+E . Use the sageMakerModel. transform method to get inferences from the model hosted in SageMaker
+F . Convert the DataFrame object to a CSV file, and use the CSV file as input for obtaining inferences from SageMaker.
+</t>
   </si>
 </sst>
 </file>
@@ -3493,7 +3508,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3501,7 +3516,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4847,27 +4862,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId4" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4897,27 +4912,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
+        <control shapeId="1035" r:id="rId8" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5106,10 +5121,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -5593,15 +5608,15 @@
       </c>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="348.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="D50" s="13"/>
     </row>
@@ -5610,7 +5625,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>23</v>
@@ -5622,7 +5637,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>28</v>
@@ -5634,7 +5649,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>22</v>
@@ -5646,7 +5661,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>23</v>
@@ -5658,7 +5673,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>23</v>
@@ -5670,7 +5685,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>25</v>
@@ -5682,7 +5697,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>22</v>
@@ -5694,10 +5709,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="13"/>
     </row>
@@ -5706,7 +5721,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>22</v>
@@ -5718,7 +5733,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>22</v>
@@ -5730,7 +5745,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>28</v>
@@ -5742,10 +5757,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="13"/>
     </row>
@@ -5754,7 +5769,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>23</v>
@@ -5766,10 +5781,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D64" s="13"/>
     </row>
@@ -5778,10 +5793,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D65" s="13"/>
     </row>
@@ -5790,10 +5805,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D66" s="13"/>
     </row>
@@ -5802,7 +5817,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>22</v>
@@ -5814,10 +5829,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D68" s="13"/>
     </row>
@@ -5826,10 +5841,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69" s="13"/>
     </row>
@@ -5838,7 +5853,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>23</v>
@@ -5850,7 +5865,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>30</v>
@@ -5862,10 +5877,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D72" s="13"/>
     </row>
@@ -5874,7 +5889,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>28</v>
@@ -5886,10 +5901,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D74" s="13"/>
     </row>
@@ -5898,7 +5913,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>23</v>
@@ -5910,7 +5925,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>23</v>
@@ -5922,7 +5937,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>30</v>
@@ -5934,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>22</v>
@@ -5946,7 +5961,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>28</v>
@@ -5958,10 +5973,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" s="13"/>
     </row>
@@ -5970,10 +5985,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D81" s="13"/>
     </row>
@@ -5982,10 +5997,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D82" s="13"/>
     </row>
@@ -5994,10 +6009,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D83" s="13"/>
     </row>
@@ -6006,10 +6021,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D84" s="13"/>
     </row>
@@ -6018,7 +6033,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>22</v>
@@ -6030,10 +6045,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D86" s="13"/>
     </row>
@@ -6042,22 +6057,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D87" s="13"/>
     </row>
-    <row r="88" spans="1:4" ht="258.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" s="13"/>
     </row>
@@ -6066,10 +6081,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D89" s="13"/>
     </row>
@@ -6078,10 +6093,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D90" s="13"/>
     </row>
@@ -6090,10 +6105,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D91" s="13"/>
     </row>
@@ -6102,10 +6117,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D92" s="13"/>
     </row>
@@ -6114,10 +6129,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -6126,10 +6141,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -6138,10 +6153,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D95" s="13"/>
     </row>
@@ -6150,10 +6165,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" s="13"/>
     </row>
@@ -6162,22 +6177,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D97" s="13"/>
     </row>
-    <row r="98" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D98" s="13"/>
     </row>
@@ -6186,10 +6201,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D99" s="13"/>
     </row>
@@ -6198,10 +6213,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D100" s="13"/>
     </row>
@@ -6210,10 +6225,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" s="13"/>
     </row>
@@ -6222,10 +6237,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D102" s="13"/>
     </row>
@@ -6234,10 +6249,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="13"/>
     </row>
@@ -6246,10 +6261,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104" s="13"/>
     </row>
@@ -6258,10 +6273,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D105" s="13"/>
     </row>
@@ -6270,10 +6285,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" s="13"/>
     </row>
@@ -6282,10 +6297,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" s="13"/>
     </row>
@@ -6294,22 +6309,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="405" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" s="13"/>
     </row>
@@ -6318,10 +6333,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D110" s="13"/>
     </row>
@@ -6330,10 +6345,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D111" s="13"/>
     </row>
@@ -6342,10 +6357,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D112" s="13"/>
     </row>
@@ -6354,10 +6369,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D113" s="13"/>
     </row>
@@ -6366,10 +6381,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D114" s="13"/>
     </row>
@@ -6378,10 +6393,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D115" s="13"/>
     </row>
@@ -6390,10 +6405,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D116" s="13"/>
     </row>
@@ -6402,10 +6417,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D117" s="13"/>
     </row>
@@ -6414,10 +6429,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D118" s="13"/>
     </row>
@@ -6426,10 +6441,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D119" s="13"/>
     </row>
@@ -6438,10 +6453,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D120" s="13"/>
     </row>
@@ -6450,10 +6465,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D121" s="13"/>
     </row>
@@ -6462,10 +6477,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D122" s="13"/>
     </row>
@@ -6474,10 +6489,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D123" s="13"/>
     </row>
@@ -6486,10 +6501,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D124" s="13"/>
     </row>
@@ -6498,10 +6513,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D125" s="13"/>
     </row>
@@ -6510,10 +6525,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D126" s="13"/>
     </row>
@@ -6522,10 +6537,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D127" s="13"/>
     </row>
@@ -6534,10 +6549,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D128" s="13"/>
     </row>
@@ -6546,10 +6561,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D129" s="13"/>
     </row>
@@ -6558,10 +6573,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D130" s="13"/>
     </row>
@@ -6570,10 +6585,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D131" s="13"/>
     </row>
@@ -6582,10 +6597,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D132" s="13"/>
     </row>
@@ -6594,10 +6609,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D133" s="13"/>
     </row>
@@ -6606,10 +6621,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D134" s="13"/>
     </row>
@@ -6618,10 +6633,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -6629,10 +6644,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -6640,10 +6655,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
@@ -6651,10 +6666,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -6662,10 +6677,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
@@ -6673,10 +6688,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -6684,10 +6699,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -6695,10 +6710,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
@@ -6706,10 +6721,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
@@ -6717,10 +6732,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6728,10 +6743,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -6739,10 +6754,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="281.25" x14ac:dyDescent="0.25">
@@ -6750,10 +6765,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6761,10 +6776,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6772,10 +6787,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6783,10 +6798,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -6794,10 +6809,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6805,10 +6820,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -6816,10 +6831,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6827,10 +6842,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6838,10 +6853,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6849,10 +6864,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6860,10 +6875,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6871,10 +6886,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -6882,10 +6897,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -6893,10 +6908,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6904,10 +6919,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6915,10 +6930,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -6926,10 +6941,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6937,10 +6952,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6948,10 +6963,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -6959,10 +6974,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -6970,10 +6985,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -6981,10 +6996,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -6992,10 +7007,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -7003,10 +7018,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -7014,10 +7029,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -7025,10 +7040,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7036,10 +7051,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7047,10 +7062,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -7058,10 +7073,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="258.75" x14ac:dyDescent="0.25">
@@ -7069,10 +7084,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="202.5" x14ac:dyDescent="0.25">
@@ -7080,10 +7095,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -7091,10 +7106,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7102,10 +7117,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -7113,10 +7128,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
@@ -7124,10 +7139,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
@@ -7135,10 +7150,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -7146,10 +7161,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7157,10 +7172,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="146.25" x14ac:dyDescent="0.25">
@@ -7168,10 +7183,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
@@ -7179,10 +7194,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7190,10 +7205,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="168.75" x14ac:dyDescent="0.25">
@@ -7201,10 +7216,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
@@ -7212,10 +7227,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7223,10 +7238,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7234,10 +7249,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="191.25" x14ac:dyDescent="0.25">
@@ -7245,10 +7260,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
@@ -7256,10 +7271,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
@@ -7267,10 +7282,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -7278,10 +7293,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="292.5" x14ac:dyDescent="0.25">
@@ -7289,10 +7304,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -7300,10 +7315,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="326.25" x14ac:dyDescent="0.25">
@@ -7311,10 +7326,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="202.5" x14ac:dyDescent="0.25">
@@ -7322,10 +7337,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D199" s="13"/>
     </row>
@@ -7334,7 +7349,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>28</v>
@@ -7346,7 +7361,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>28</v>

--- a/exam_prep.xlsx
+++ b/exam_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkh\Documents\Self-Learning\AWS MLS-C01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4190DB-225F-4CB2-8C94-96FA86761389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AAE85E-35F8-49C8-84CB-B01495B5EB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1530" windowWidth="15765" windowHeight="13935" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
+    <workbookView xWindow="870" yWindow="1665" windowWidth="15330" windowHeight="11685" activeTab="2" xr2:uid="{25221DD8-1A09-4FD6-BF88-69A170600272}"/>
   </bookViews>
   <sheets>
     <sheet name="MLS_C01 Exam" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="363">
   <si>
     <t>Sn</t>
   </si>
@@ -3298,6 +3298,13 @@
 D . Compress the training data into a ZIP file and upload it to a pre-defined Amazon S3 bucket.
 E . Use the sageMakerModel. transform method to get inferences from the model hosted in SageMaker
 F . Convert the DataFrame object to a CSV file, and use the CSV file as input for obtaining inferences from SageMaker.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers : A
+﻿A. Bundle the NVIDIA drivers with the Docker image
+To leverage the NVIDIA GPUs for training, the Specialist needs to bundle the NVIDIA drivers with the Docker image. This can be done by creating a custom Docker image that includes the necessary NVIDIA drivers and installing them during the build process. Once the image is created, it can be used to train the ResNet model on Amazon SageMaker.
+Option B (Build the Docker container to be NVIDIA-Docker compatible) does not provide any additional benefit for leveraging the NVIDIA GPUs for training. Option C (Organize the Docker container's file structure to execute on GPU instances) is a good practice, but it is not necessary for leveraging the NVIDIA GPUs for training. Option D (Set the GPU flag in the Amazon SageMaker Create TrainingJob request body) is not related to leveraging the NVIDIA GPUs for training and does not provide any additional benefit.
 </t>
   </si>
 </sst>
@@ -3508,7 +3515,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3516,7 +3523,7 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4339,7 +4346,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:P31"/>
     </sheetView>
   </sheetViews>
@@ -4862,27 +4869,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId5">
+        <control shapeId="1035" r:id="rId4" name="CheckBox1">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId4" name="ScrollBar2"/>
+        <control shapeId="1035" r:id="rId4" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4912,27 +4919,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId8" name="CheckBox1">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" linkedCell="I3" r:id="rId9">
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="C34" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId8" name="CheckBox1"/>
+        <control shapeId="1037" r:id="rId8" name="ScrollBar2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5008,7 +5015,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5596,7 +5603,7 @@
       </c>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>78</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="D49" s="13"/>
     </row>
@@ -6064,7 +6071,7 @@
       </c>
       <c r="D87" s="13"/>
     </row>
-    <row r="88" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -6184,7 +6191,7 @@
       </c>
       <c r="D97" s="13"/>
     </row>
-    <row r="98" spans="1:4" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>97</v>
       </c>
@@ -6316,7 +6323,7 @@
       </c>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>108</v>
       </c>
